--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8291187C-8175-493F-A56F-D902A9667713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD776821-E80B-4DB8-8B72-14E4E1366E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Initials</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J32:J33"/>
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +932,9 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD776821-E80B-4DB8-8B72-14E4E1366E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CEF847-B473-45FB-ADCB-D41487169D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
     <sheet name="Backlog" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Initials</t>
   </si>
@@ -196,12 +197,48 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Keep Doing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid: </t>
+  </si>
+  <si>
+    <t>Review Results:</t>
+  </si>
+  <si>
+    <t>Github Link:</t>
+  </si>
+  <si>
+    <t>https://github.com/Jerrytd579/cs555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,12 +298,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -582,14 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48251613-E51F-457C-A390-67FEF2132086}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -645,13 +693,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A2B18543-38BC-4C5A-AF13-0461EE9B50D6}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{289A3E5E-D18A-4BCC-B297-937AA1A9B96B}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{6B0B20D6-E624-4008-87FF-8052F9F987A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -659,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5089F6BA-D448-47B4-AE24-DF66C8EF4E69}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
@@ -964,4 +1021,170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9483B-7C01-4C77-A27D-CBB71DE53C8D}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CEF847-B473-45FB-ADCB-D41487169D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C5D20-66A4-4D52-A9CB-85976212C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
     <sheet name="Backlog" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="4" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint 1" sheetId="3" r:id="rId5"/>
+    <sheet name="Stories" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
   <si>
     <t>Initials</t>
   </si>
@@ -230,16 +236,353 @@
   </si>
   <si>
     <t>https://github.com/Jerrytd579/cs555</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +619,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E3BC"/>
+        <bgColor rgb="FFD6E3BC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,11 +661,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -313,10 +681,30 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6533BBAD-890D-4359-8423-D7C1FF792F0E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,6 +717,1185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Burndown README'!$B$15:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Burndown README'!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6A4-44E8-A991-8920695C20A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="751384951"/>
+        <c:axId val="261410492"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="751384951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261410492"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261410492"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751384951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Burndown!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06DA-4922-8158-DD498E20EB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1881607879"/>
+        <c:axId val="2018318546"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1881607879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018318546"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2018318546"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881607879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3971925" cy="2619375"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325632F4-77BF-4158-B0A4-CB48951F436D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1114425" cy="628650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B242306C-D78E-463B-9895-8B32C90081D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="1476375"/>
+          <a:ext cx="1114425" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63937"/>
+            <a:gd name="adj2" fmla="val 85744"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="96C0FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>= # team members * 4 sprints * </a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2 stories per sprint</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1104900" cy="533400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EF1AA0-4C5D-44DF-9E43-89C7E73F8888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="1457325"/>
+          <a:ext cx="1104900" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8539"/>
+            <a:gd name="adj2" fmla="val 66736"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="96C0FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>lines of code per hour is calcuated by Excel</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="885825" cy="800100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Shape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77548D3-9818-41FD-BAC6-9D8A5337F791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1285875"/>
+          <a:ext cx="885825" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18748"/>
+            <a:gd name="adj2" fmla="val 58438"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="96C0FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Velocity of completing user stories (calculated)</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>887730</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="693420"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Shape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24998C6E-5B05-42A9-A746-C85B6E8F162E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3640455" y="1333501"/>
+          <a:ext cx="590550" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -19786"/>
+            <a:gd name="adj2" fmla="val 63376"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="96C0FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Total </a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LOC</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1085850" cy="733425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DB2B19-A1C3-4B04-94DE-D36C3FAA5CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="1304925"/>
+          <a:ext cx="1085850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11880"/>
+            <a:gd name="adj2" fmla="val 73902"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="96C0FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>How long to implement the user stories in this sprint</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1449705" cy="1478280"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Shape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA75F01E-CFBE-4CD0-AB79-E714FD15DF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749165" y="4038600"/>
+          <a:ext cx="1449705" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51744"/>
+            <a:gd name="adj2" fmla="val 81797"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="96C0FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>When we expect to complete all user stories</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3886200" cy="2619375"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B62013-8FF5-4236-8D4E-78CA1C758340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Team"/>
+      <sheetName val="Backlog"/>
+      <sheetName val="Burndown README"/>
+      <sheetName val="Burndown"/>
+      <sheetName val="Sprint1"/>
+      <sheetName val="Sprint2"/>
+      <sheetName val="Sprint3"/>
+      <sheetName val="Sprint4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="15">
+          <cell r="B15">
+            <v>42527</v>
+          </cell>
+          <cell r="C15">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>42540</v>
+          </cell>
+          <cell r="C16">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>42554</v>
+          </cell>
+          <cell r="C17">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>42568</v>
+          </cell>
+          <cell r="C18">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>42582</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2">
+            <v>44718</v>
+          </cell>
+          <cell r="B2">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>44725</v>
+          </cell>
+          <cell r="B3">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>44729</v>
+          </cell>
+          <cell r="B4">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>44732</v>
+          </cell>
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,7 +2198,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +2591,562 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87608DE-7EE8-477B-B354-D3A5B0DE9B55}">
+  <dimension ref="A1:O46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="12">
+        <v>42527</v>
+      </c>
+      <c r="C15" s="13">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="12">
+        <v>42540</v>
+      </c>
+      <c r="C16" s="13">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D19" si="0">C15-C16</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="13">
+        <v>250</v>
+      </c>
+      <c r="F16" s="13">
+        <v>120</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" ref="G16:G19" si="1">(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="12">
+        <v>42554</v>
+      </c>
+      <c r="C17" s="13">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="13">
+        <v>480</v>
+      </c>
+      <c r="F17" s="14">
+        <v>135</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="12">
+        <v>42568</v>
+      </c>
+      <c r="C18" s="13">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="13">
+        <v>740</v>
+      </c>
+      <c r="F18" s="14">
+        <v>160</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="12">
+        <v>42582</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="14">
+        <v>145</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>148.9655172413793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="F46" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EA06FC-8026-41BB-9053-37C9CBBA870B}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>44718</v>
+      </c>
+      <c r="B2" s="4">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>250</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>44725</v>
+      </c>
+      <c r="B3" s="4">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <f>B2-B3</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>250</v>
+      </c>
+      <c r="E3" s="4">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9">
+        <f>(D3-D2)/E3*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>44729</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C5" si="0">B3-B4</f>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>44732</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="F33" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9483B-7C01-4C77-A27D-CBB71DE53C8D}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -1187,4 +3310,3394 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="95" style="15" customWidth="1"/>
+    <col min="4" max="26" width="12.28515625" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="16.42578125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="16"/>
+    </row>
+    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="16"/>
+    </row>
+    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="16"/>
+    </row>
+    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="16"/>
+    </row>
+    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="16"/>
+    </row>
+    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="16"/>
+    </row>
+    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="16"/>
+    </row>
+    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="16"/>
+    </row>
+    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="16"/>
+    </row>
+    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="16"/>
+    </row>
+    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="16"/>
+    </row>
+    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="16"/>
+    </row>
+    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="16"/>
+    </row>
+    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="16"/>
+    </row>
+    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="16"/>
+    </row>
+    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="16"/>
+    </row>
+    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="16"/>
+    </row>
+    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="16"/>
+    </row>
+    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="16"/>
+    </row>
+    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="16"/>
+    </row>
+    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="16"/>
+    </row>
+    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="16"/>
+    </row>
+    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="16"/>
+    </row>
+    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="16"/>
+    </row>
+    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="16"/>
+    </row>
+    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="16"/>
+    </row>
+    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="16"/>
+    </row>
+    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="16"/>
+    </row>
+    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="16"/>
+    </row>
+    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="16"/>
+    </row>
+    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="16"/>
+    </row>
+    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="16"/>
+    </row>
+    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="16"/>
+    </row>
+    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="16"/>
+    </row>
+    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="16"/>
+    </row>
+    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="16"/>
+    </row>
+    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="16"/>
+    </row>
+    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="16"/>
+    </row>
+    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="16"/>
+    </row>
+    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="16"/>
+    </row>
+    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="16"/>
+    </row>
+    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="16"/>
+    </row>
+    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="16"/>
+    </row>
+    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="16"/>
+    </row>
+    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="16"/>
+    </row>
+    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="16"/>
+    </row>
+    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="16"/>
+    </row>
+    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="16"/>
+    </row>
+    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="16"/>
+    </row>
+    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="16"/>
+    </row>
+    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="16"/>
+    </row>
+    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="16"/>
+    </row>
+    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="16"/>
+    </row>
+    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="16"/>
+    </row>
+    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="16"/>
+    </row>
+    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="16"/>
+    </row>
+    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="16"/>
+    </row>
+    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="16"/>
+    </row>
+    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="16"/>
+    </row>
+    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="16"/>
+    </row>
+    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="16"/>
+    </row>
+    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="16"/>
+    </row>
+    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C153" s="16"/>
+    </row>
+    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="16"/>
+    </row>
+    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C155" s="16"/>
+    </row>
+    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C156" s="16"/>
+    </row>
+    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="16"/>
+    </row>
+    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="16"/>
+    </row>
+    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C159" s="16"/>
+    </row>
+    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="16"/>
+    </row>
+    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="16"/>
+    </row>
+    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="16"/>
+    </row>
+    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="16"/>
+    </row>
+    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C164" s="16"/>
+    </row>
+    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="16"/>
+    </row>
+    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="16"/>
+    </row>
+    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="16"/>
+    </row>
+    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="16"/>
+    </row>
+    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="16"/>
+    </row>
+    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="16"/>
+    </row>
+    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="16"/>
+    </row>
+    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="16"/>
+    </row>
+    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="16"/>
+    </row>
+    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="16"/>
+    </row>
+    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="16"/>
+    </row>
+    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="16"/>
+    </row>
+    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="16"/>
+    </row>
+    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="16"/>
+    </row>
+    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="16"/>
+    </row>
+    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="16"/>
+    </row>
+    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="16"/>
+    </row>
+    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="16"/>
+    </row>
+    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="16"/>
+    </row>
+    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="16"/>
+    </row>
+    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="16"/>
+    </row>
+    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="16"/>
+    </row>
+    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="16"/>
+    </row>
+    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="16"/>
+    </row>
+    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="16"/>
+    </row>
+    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="16"/>
+    </row>
+    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="16"/>
+    </row>
+    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="16"/>
+    </row>
+    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="16"/>
+    </row>
+    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C199" s="16"/>
+    </row>
+    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="16"/>
+    </row>
+    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="16"/>
+    </row>
+    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="16"/>
+    </row>
+    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="16"/>
+    </row>
+    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="16"/>
+    </row>
+    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="16"/>
+    </row>
+    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" s="16"/>
+    </row>
+    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="16"/>
+    </row>
+    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="16"/>
+    </row>
+    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="16"/>
+    </row>
+    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="16"/>
+    </row>
+    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C211" s="16"/>
+    </row>
+    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C212" s="16"/>
+    </row>
+    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="16"/>
+    </row>
+    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C214" s="16"/>
+    </row>
+    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C215" s="16"/>
+    </row>
+    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C216" s="16"/>
+    </row>
+    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C217" s="16"/>
+    </row>
+    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="16"/>
+    </row>
+    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C219" s="16"/>
+    </row>
+    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="16"/>
+    </row>
+    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="16"/>
+    </row>
+    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="16"/>
+    </row>
+    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="16"/>
+    </row>
+    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="16"/>
+    </row>
+    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="16"/>
+    </row>
+    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="16"/>
+    </row>
+    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="16"/>
+    </row>
+    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="16"/>
+    </row>
+    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="16"/>
+    </row>
+    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="16"/>
+    </row>
+    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C231" s="16"/>
+    </row>
+    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C232" s="16"/>
+    </row>
+    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C233" s="16"/>
+    </row>
+    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C234" s="16"/>
+    </row>
+    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C235" s="16"/>
+    </row>
+    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C236" s="16"/>
+    </row>
+    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C237" s="16"/>
+    </row>
+    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C238" s="16"/>
+    </row>
+    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C239" s="16"/>
+    </row>
+    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C240" s="16"/>
+    </row>
+    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C241" s="16"/>
+    </row>
+    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C242" s="16"/>
+    </row>
+    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C243" s="16"/>
+    </row>
+    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C244" s="16"/>
+    </row>
+    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C245" s="16"/>
+    </row>
+    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C246" s="16"/>
+    </row>
+    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C247" s="16"/>
+    </row>
+    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C248" s="16"/>
+    </row>
+    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C249" s="16"/>
+    </row>
+    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C250" s="16"/>
+    </row>
+    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C251" s="16"/>
+    </row>
+    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C252" s="16"/>
+    </row>
+    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C253" s="16"/>
+    </row>
+    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C254" s="16"/>
+    </row>
+    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C255" s="16"/>
+    </row>
+    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C256" s="16"/>
+    </row>
+    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="16"/>
+    </row>
+    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C258" s="16"/>
+    </row>
+    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="16"/>
+    </row>
+    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C260" s="16"/>
+    </row>
+    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C261" s="16"/>
+    </row>
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C262" s="16"/>
+    </row>
+    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C263" s="16"/>
+    </row>
+    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C264" s="16"/>
+    </row>
+    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C265" s="16"/>
+    </row>
+    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C266" s="16"/>
+    </row>
+    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C267" s="16"/>
+    </row>
+    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C268" s="16"/>
+    </row>
+    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C269" s="16"/>
+    </row>
+    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C270" s="16"/>
+    </row>
+    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C271" s="16"/>
+    </row>
+    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C272" s="16"/>
+    </row>
+    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C273" s="16"/>
+    </row>
+    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C274" s="16"/>
+    </row>
+    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C275" s="16"/>
+    </row>
+    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C276" s="16"/>
+    </row>
+    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C277" s="16"/>
+    </row>
+    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C278" s="16"/>
+    </row>
+    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C279" s="16"/>
+    </row>
+    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C280" s="16"/>
+    </row>
+    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C281" s="16"/>
+    </row>
+    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C282" s="16"/>
+    </row>
+    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C283" s="16"/>
+    </row>
+    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C284" s="16"/>
+    </row>
+    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C285" s="16"/>
+    </row>
+    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C286" s="16"/>
+    </row>
+    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C287" s="16"/>
+    </row>
+    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C288" s="16"/>
+    </row>
+    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C289" s="16"/>
+    </row>
+    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C290" s="16"/>
+    </row>
+    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C291" s="16"/>
+    </row>
+    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C292" s="16"/>
+    </row>
+    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C293" s="16"/>
+    </row>
+    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C294" s="16"/>
+    </row>
+    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C295" s="16"/>
+    </row>
+    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C296" s="16"/>
+    </row>
+    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C297" s="16"/>
+    </row>
+    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C298" s="16"/>
+    </row>
+    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C299" s="16"/>
+    </row>
+    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C300" s="16"/>
+    </row>
+    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C301" s="16"/>
+    </row>
+    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C302" s="16"/>
+    </row>
+    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C303" s="16"/>
+    </row>
+    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C304" s="16"/>
+    </row>
+    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C305" s="16"/>
+    </row>
+    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C306" s="16"/>
+    </row>
+    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C307" s="16"/>
+    </row>
+    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C308" s="16"/>
+    </row>
+    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C309" s="16"/>
+    </row>
+    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C310" s="16"/>
+    </row>
+    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C311" s="16"/>
+    </row>
+    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C312" s="16"/>
+    </row>
+    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C313" s="16"/>
+    </row>
+    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C314" s="16"/>
+    </row>
+    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C315" s="16"/>
+    </row>
+    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C316" s="16"/>
+    </row>
+    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C317" s="16"/>
+    </row>
+    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C318" s="16"/>
+    </row>
+    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C319" s="16"/>
+    </row>
+    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C320" s="16"/>
+    </row>
+    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C321" s="16"/>
+    </row>
+    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C322" s="16"/>
+    </row>
+    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C323" s="16"/>
+    </row>
+    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C324" s="16"/>
+    </row>
+    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C325" s="16"/>
+    </row>
+    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C326" s="16"/>
+    </row>
+    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C327" s="16"/>
+    </row>
+    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C328" s="16"/>
+    </row>
+    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C329" s="16"/>
+    </row>
+    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C330" s="16"/>
+    </row>
+    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C331" s="16"/>
+    </row>
+    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C332" s="16"/>
+    </row>
+    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C333" s="16"/>
+    </row>
+    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C334" s="16"/>
+    </row>
+    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C335" s="16"/>
+    </row>
+    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C336" s="16"/>
+    </row>
+    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C337" s="16"/>
+    </row>
+    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C338" s="16"/>
+    </row>
+    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C339" s="16"/>
+    </row>
+    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C340" s="16"/>
+    </row>
+    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C341" s="16"/>
+    </row>
+    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C342" s="16"/>
+    </row>
+    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C343" s="16"/>
+    </row>
+    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C344" s="16"/>
+    </row>
+    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C345" s="16"/>
+    </row>
+    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C346" s="16"/>
+    </row>
+    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C347" s="16"/>
+    </row>
+    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C348" s="16"/>
+    </row>
+    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C349" s="16"/>
+    </row>
+    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C350" s="16"/>
+    </row>
+    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C351" s="16"/>
+    </row>
+    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C352" s="16"/>
+    </row>
+    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C353" s="16"/>
+    </row>
+    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C354" s="16"/>
+    </row>
+    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C355" s="16"/>
+    </row>
+    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C356" s="16"/>
+    </row>
+    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C357" s="16"/>
+    </row>
+    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C358" s="16"/>
+    </row>
+    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C359" s="16"/>
+    </row>
+    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C360" s="16"/>
+    </row>
+    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C361" s="16"/>
+    </row>
+    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C362" s="16"/>
+    </row>
+    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C363" s="16"/>
+    </row>
+    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C364" s="16"/>
+    </row>
+    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C365" s="16"/>
+    </row>
+    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C366" s="16"/>
+    </row>
+    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C367" s="16"/>
+    </row>
+    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C368" s="16"/>
+    </row>
+    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C369" s="16"/>
+    </row>
+    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C370" s="16"/>
+    </row>
+    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C371" s="16"/>
+    </row>
+    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C372" s="16"/>
+    </row>
+    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C373" s="16"/>
+    </row>
+    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C374" s="16"/>
+    </row>
+    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C375" s="16"/>
+    </row>
+    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C376" s="16"/>
+    </row>
+    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C377" s="16"/>
+    </row>
+    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C378" s="16"/>
+    </row>
+    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C379" s="16"/>
+    </row>
+    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C380" s="16"/>
+    </row>
+    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C381" s="16"/>
+    </row>
+    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C382" s="16"/>
+    </row>
+    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C383" s="16"/>
+    </row>
+    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C384" s="16"/>
+    </row>
+    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C385" s="16"/>
+    </row>
+    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C386" s="16"/>
+    </row>
+    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C387" s="16"/>
+    </row>
+    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C388" s="16"/>
+    </row>
+    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C389" s="16"/>
+    </row>
+    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C390" s="16"/>
+    </row>
+    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C391" s="16"/>
+    </row>
+    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C392" s="16"/>
+    </row>
+    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C393" s="16"/>
+    </row>
+    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C394" s="16"/>
+    </row>
+    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C395" s="16"/>
+    </row>
+    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C396" s="16"/>
+    </row>
+    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C397" s="16"/>
+    </row>
+    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C398" s="16"/>
+    </row>
+    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C399" s="16"/>
+    </row>
+    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C400" s="16"/>
+    </row>
+    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C401" s="16"/>
+    </row>
+    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C402" s="16"/>
+    </row>
+    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C403" s="16"/>
+    </row>
+    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C404" s="16"/>
+    </row>
+    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C405" s="16"/>
+    </row>
+    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C406" s="16"/>
+    </row>
+    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C407" s="16"/>
+    </row>
+    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C408" s="16"/>
+    </row>
+    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C409" s="16"/>
+    </row>
+    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C410" s="16"/>
+    </row>
+    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C411" s="16"/>
+    </row>
+    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C412" s="16"/>
+    </row>
+    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C413" s="16"/>
+    </row>
+    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C414" s="16"/>
+    </row>
+    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C415" s="16"/>
+    </row>
+    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C416" s="16"/>
+    </row>
+    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C417" s="16"/>
+    </row>
+    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C418" s="16"/>
+    </row>
+    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C419" s="16"/>
+    </row>
+    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C420" s="16"/>
+    </row>
+    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C421" s="16"/>
+    </row>
+    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C422" s="16"/>
+    </row>
+    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C423" s="16"/>
+    </row>
+    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C424" s="16"/>
+    </row>
+    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C425" s="16"/>
+    </row>
+    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C426" s="16"/>
+    </row>
+    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C427" s="16"/>
+    </row>
+    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C428" s="16"/>
+    </row>
+    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C429" s="16"/>
+    </row>
+    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C430" s="16"/>
+    </row>
+    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C431" s="16"/>
+    </row>
+    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C432" s="16"/>
+    </row>
+    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C433" s="16"/>
+    </row>
+    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C434" s="16"/>
+    </row>
+    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C435" s="16"/>
+    </row>
+    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C436" s="16"/>
+    </row>
+    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C437" s="16"/>
+    </row>
+    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C438" s="16"/>
+    </row>
+    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C439" s="16"/>
+    </row>
+    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C440" s="16"/>
+    </row>
+    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C441" s="16"/>
+    </row>
+    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C442" s="16"/>
+    </row>
+    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C443" s="16"/>
+    </row>
+    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C444" s="16"/>
+    </row>
+    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C445" s="16"/>
+    </row>
+    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C446" s="16"/>
+    </row>
+    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C447" s="16"/>
+    </row>
+    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C448" s="16"/>
+    </row>
+    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C449" s="16"/>
+    </row>
+    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C450" s="16"/>
+    </row>
+    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C451" s="16"/>
+    </row>
+    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C452" s="16"/>
+    </row>
+    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C453" s="16"/>
+    </row>
+    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C454" s="16"/>
+    </row>
+    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C455" s="16"/>
+    </row>
+    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C456" s="16"/>
+    </row>
+    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C457" s="16"/>
+    </row>
+    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C458" s="16"/>
+    </row>
+    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C459" s="16"/>
+    </row>
+    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C460" s="16"/>
+    </row>
+    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C461" s="16"/>
+    </row>
+    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C462" s="16"/>
+    </row>
+    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C463" s="16"/>
+    </row>
+    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C464" s="16"/>
+    </row>
+    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C465" s="16"/>
+    </row>
+    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C466" s="16"/>
+    </row>
+    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C467" s="16"/>
+    </row>
+    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C468" s="16"/>
+    </row>
+    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C469" s="16"/>
+    </row>
+    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C470" s="16"/>
+    </row>
+    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C471" s="16"/>
+    </row>
+    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C472" s="16"/>
+    </row>
+    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C473" s="16"/>
+    </row>
+    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C474" s="16"/>
+    </row>
+    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C475" s="16"/>
+    </row>
+    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C476" s="16"/>
+    </row>
+    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C477" s="16"/>
+    </row>
+    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C478" s="16"/>
+    </row>
+    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C479" s="16"/>
+    </row>
+    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C480" s="16"/>
+    </row>
+    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C481" s="16"/>
+    </row>
+    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C482" s="16"/>
+    </row>
+    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C483" s="16"/>
+    </row>
+    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C484" s="16"/>
+    </row>
+    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C485" s="16"/>
+    </row>
+    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C486" s="16"/>
+    </row>
+    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C487" s="16"/>
+    </row>
+    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C488" s="16"/>
+    </row>
+    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C489" s="16"/>
+    </row>
+    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C490" s="16"/>
+    </row>
+    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C491" s="16"/>
+    </row>
+    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C492" s="16"/>
+    </row>
+    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C493" s="16"/>
+    </row>
+    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C494" s="16"/>
+    </row>
+    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C495" s="16"/>
+    </row>
+    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C496" s="16"/>
+    </row>
+    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C497" s="16"/>
+    </row>
+    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C498" s="16"/>
+    </row>
+    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C499" s="16"/>
+    </row>
+    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C500" s="16"/>
+    </row>
+    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C501" s="16"/>
+    </row>
+    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C502" s="16"/>
+    </row>
+    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C503" s="16"/>
+    </row>
+    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C504" s="16"/>
+    </row>
+    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C505" s="16"/>
+    </row>
+    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C506" s="16"/>
+    </row>
+    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C507" s="16"/>
+    </row>
+    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C508" s="16"/>
+    </row>
+    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C509" s="16"/>
+    </row>
+    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C510" s="16"/>
+    </row>
+    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C511" s="16"/>
+    </row>
+    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C512" s="16"/>
+    </row>
+    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C513" s="16"/>
+    </row>
+    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C514" s="16"/>
+    </row>
+    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C515" s="16"/>
+    </row>
+    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C516" s="16"/>
+    </row>
+    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C517" s="16"/>
+    </row>
+    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C518" s="16"/>
+    </row>
+    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C519" s="16"/>
+    </row>
+    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C520" s="16"/>
+    </row>
+    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C521" s="16"/>
+    </row>
+    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C522" s="16"/>
+    </row>
+    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C523" s="16"/>
+    </row>
+    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C524" s="16"/>
+    </row>
+    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C525" s="16"/>
+    </row>
+    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C526" s="16"/>
+    </row>
+    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C527" s="16"/>
+    </row>
+    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C528" s="16"/>
+    </row>
+    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C529" s="16"/>
+    </row>
+    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C530" s="16"/>
+    </row>
+    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C531" s="16"/>
+    </row>
+    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C532" s="16"/>
+    </row>
+    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C533" s="16"/>
+    </row>
+    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C534" s="16"/>
+    </row>
+    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C535" s="16"/>
+    </row>
+    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C536" s="16"/>
+    </row>
+    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C537" s="16"/>
+    </row>
+    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C538" s="16"/>
+    </row>
+    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C539" s="16"/>
+    </row>
+    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C540" s="16"/>
+    </row>
+    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C541" s="16"/>
+    </row>
+    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C542" s="16"/>
+    </row>
+    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C543" s="16"/>
+    </row>
+    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C544" s="16"/>
+    </row>
+    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C545" s="16"/>
+    </row>
+    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C546" s="16"/>
+    </row>
+    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C547" s="16"/>
+    </row>
+    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C548" s="16"/>
+    </row>
+    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C549" s="16"/>
+    </row>
+    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C550" s="16"/>
+    </row>
+    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C551" s="16"/>
+    </row>
+    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C552" s="16"/>
+    </row>
+    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C553" s="16"/>
+    </row>
+    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C554" s="16"/>
+    </row>
+    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C555" s="16"/>
+    </row>
+    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C556" s="16"/>
+    </row>
+    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C557" s="16"/>
+    </row>
+    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C558" s="16"/>
+    </row>
+    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C559" s="16"/>
+    </row>
+    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C560" s="16"/>
+    </row>
+    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C561" s="16"/>
+    </row>
+    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C562" s="16"/>
+    </row>
+    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C563" s="16"/>
+    </row>
+    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C564" s="16"/>
+    </row>
+    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C565" s="16"/>
+    </row>
+    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C566" s="16"/>
+    </row>
+    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C567" s="16"/>
+    </row>
+    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C568" s="16"/>
+    </row>
+    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C569" s="16"/>
+    </row>
+    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C570" s="16"/>
+    </row>
+    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C571" s="16"/>
+    </row>
+    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C572" s="16"/>
+    </row>
+    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C573" s="16"/>
+    </row>
+    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C574" s="16"/>
+    </row>
+    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C575" s="16"/>
+    </row>
+    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C576" s="16"/>
+    </row>
+    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C577" s="16"/>
+    </row>
+    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C578" s="16"/>
+    </row>
+    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C579" s="16"/>
+    </row>
+    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C580" s="16"/>
+    </row>
+    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C581" s="16"/>
+    </row>
+    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C582" s="16"/>
+    </row>
+    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C583" s="16"/>
+    </row>
+    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C584" s="16"/>
+    </row>
+    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C585" s="16"/>
+    </row>
+    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C586" s="16"/>
+    </row>
+    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C587" s="16"/>
+    </row>
+    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C588" s="16"/>
+    </row>
+    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C589" s="16"/>
+    </row>
+    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C590" s="16"/>
+    </row>
+    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C591" s="16"/>
+    </row>
+    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C592" s="16"/>
+    </row>
+    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C593" s="16"/>
+    </row>
+    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C594" s="16"/>
+    </row>
+    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C595" s="16"/>
+    </row>
+    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C596" s="16"/>
+    </row>
+    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C597" s="16"/>
+    </row>
+    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C598" s="16"/>
+    </row>
+    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C599" s="16"/>
+    </row>
+    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C600" s="16"/>
+    </row>
+    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C601" s="16"/>
+    </row>
+    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C602" s="16"/>
+    </row>
+    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C603" s="16"/>
+    </row>
+    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C604" s="16"/>
+    </row>
+    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C605" s="16"/>
+    </row>
+    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C606" s="16"/>
+    </row>
+    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C607" s="16"/>
+    </row>
+    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C608" s="16"/>
+    </row>
+    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C609" s="16"/>
+    </row>
+    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C610" s="16"/>
+    </row>
+    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C611" s="16"/>
+    </row>
+    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C612" s="16"/>
+    </row>
+    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C613" s="16"/>
+    </row>
+    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C614" s="16"/>
+    </row>
+    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C615" s="16"/>
+    </row>
+    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C616" s="16"/>
+    </row>
+    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C617" s="16"/>
+    </row>
+    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C618" s="16"/>
+    </row>
+    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C619" s="16"/>
+    </row>
+    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C620" s="16"/>
+    </row>
+    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C621" s="16"/>
+    </row>
+    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C622" s="16"/>
+    </row>
+    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C623" s="16"/>
+    </row>
+    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C624" s="16"/>
+    </row>
+    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C625" s="16"/>
+    </row>
+    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C626" s="16"/>
+    </row>
+    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C627" s="16"/>
+    </row>
+    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C628" s="16"/>
+    </row>
+    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C629" s="16"/>
+    </row>
+    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C630" s="16"/>
+    </row>
+    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C631" s="16"/>
+    </row>
+    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C632" s="16"/>
+    </row>
+    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C633" s="16"/>
+    </row>
+    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C634" s="16"/>
+    </row>
+    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C635" s="16"/>
+    </row>
+    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C636" s="16"/>
+    </row>
+    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C637" s="16"/>
+    </row>
+    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C638" s="16"/>
+    </row>
+    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C639" s="16"/>
+    </row>
+    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C640" s="16"/>
+    </row>
+    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C641" s="16"/>
+    </row>
+    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C642" s="16"/>
+    </row>
+    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C643" s="16"/>
+    </row>
+    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C644" s="16"/>
+    </row>
+    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C645" s="16"/>
+    </row>
+    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C646" s="16"/>
+    </row>
+    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C647" s="16"/>
+    </row>
+    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C648" s="16"/>
+    </row>
+    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C649" s="16"/>
+    </row>
+    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C650" s="16"/>
+    </row>
+    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C651" s="16"/>
+    </row>
+    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C652" s="16"/>
+    </row>
+    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C653" s="16"/>
+    </row>
+    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C654" s="16"/>
+    </row>
+    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C655" s="16"/>
+    </row>
+    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C656" s="16"/>
+    </row>
+    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C657" s="16"/>
+    </row>
+    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C658" s="16"/>
+    </row>
+    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C659" s="16"/>
+    </row>
+    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C660" s="16"/>
+    </row>
+    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C661" s="16"/>
+    </row>
+    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C662" s="16"/>
+    </row>
+    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C663" s="16"/>
+    </row>
+    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C664" s="16"/>
+    </row>
+    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C665" s="16"/>
+    </row>
+    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C666" s="16"/>
+    </row>
+    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C667" s="16"/>
+    </row>
+    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C668" s="16"/>
+    </row>
+    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C669" s="16"/>
+    </row>
+    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C670" s="16"/>
+    </row>
+    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C671" s="16"/>
+    </row>
+    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C672" s="16"/>
+    </row>
+    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C673" s="16"/>
+    </row>
+    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C674" s="16"/>
+    </row>
+    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C675" s="16"/>
+    </row>
+    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C676" s="16"/>
+    </row>
+    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C677" s="16"/>
+    </row>
+    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C678" s="16"/>
+    </row>
+    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C679" s="16"/>
+    </row>
+    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C680" s="16"/>
+    </row>
+    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C681" s="16"/>
+    </row>
+    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C682" s="16"/>
+    </row>
+    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C683" s="16"/>
+    </row>
+    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C684" s="16"/>
+    </row>
+    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C685" s="16"/>
+    </row>
+    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C686" s="16"/>
+    </row>
+    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C687" s="16"/>
+    </row>
+    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C688" s="16"/>
+    </row>
+    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C689" s="16"/>
+    </row>
+    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C690" s="16"/>
+    </row>
+    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C691" s="16"/>
+    </row>
+    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C692" s="16"/>
+    </row>
+    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C693" s="16"/>
+    </row>
+    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C694" s="16"/>
+    </row>
+    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C695" s="16"/>
+    </row>
+    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C696" s="16"/>
+    </row>
+    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C697" s="16"/>
+    </row>
+    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C698" s="16"/>
+    </row>
+    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C699" s="16"/>
+    </row>
+    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C700" s="16"/>
+    </row>
+    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C701" s="16"/>
+    </row>
+    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C702" s="16"/>
+    </row>
+    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C703" s="16"/>
+    </row>
+    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C704" s="16"/>
+    </row>
+    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C705" s="16"/>
+    </row>
+    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C706" s="16"/>
+    </row>
+    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C707" s="16"/>
+    </row>
+    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C708" s="16"/>
+    </row>
+    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C709" s="16"/>
+    </row>
+    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C710" s="16"/>
+    </row>
+    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C711" s="16"/>
+    </row>
+    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C712" s="16"/>
+    </row>
+    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C713" s="16"/>
+    </row>
+    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C714" s="16"/>
+    </row>
+    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C715" s="16"/>
+    </row>
+    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C716" s="16"/>
+    </row>
+    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C717" s="16"/>
+    </row>
+    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C718" s="16"/>
+    </row>
+    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C719" s="16"/>
+    </row>
+    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C720" s="16"/>
+    </row>
+    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C721" s="16"/>
+    </row>
+    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C722" s="16"/>
+    </row>
+    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C723" s="16"/>
+    </row>
+    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C724" s="16"/>
+    </row>
+    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C725" s="16"/>
+    </row>
+    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C726" s="16"/>
+    </row>
+    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C727" s="16"/>
+    </row>
+    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C728" s="16"/>
+    </row>
+    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C729" s="16"/>
+    </row>
+    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C730" s="16"/>
+    </row>
+    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C731" s="16"/>
+    </row>
+    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C732" s="16"/>
+    </row>
+    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C733" s="16"/>
+    </row>
+    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C734" s="16"/>
+    </row>
+    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C735" s="16"/>
+    </row>
+    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C736" s="16"/>
+    </row>
+    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C737" s="16"/>
+    </row>
+    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C738" s="16"/>
+    </row>
+    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C739" s="16"/>
+    </row>
+    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C740" s="16"/>
+    </row>
+    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C741" s="16"/>
+    </row>
+    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C742" s="16"/>
+    </row>
+    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C743" s="16"/>
+    </row>
+    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C744" s="16"/>
+    </row>
+    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C745" s="16"/>
+    </row>
+    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C746" s="16"/>
+    </row>
+    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C747" s="16"/>
+    </row>
+    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C748" s="16"/>
+    </row>
+    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C749" s="16"/>
+    </row>
+    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C750" s="16"/>
+    </row>
+    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C751" s="16"/>
+    </row>
+    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C752" s="16"/>
+    </row>
+    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C753" s="16"/>
+    </row>
+    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C754" s="16"/>
+    </row>
+    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C755" s="16"/>
+    </row>
+    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C756" s="16"/>
+    </row>
+    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C757" s="16"/>
+    </row>
+    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C758" s="16"/>
+    </row>
+    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C759" s="16"/>
+    </row>
+    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C760" s="16"/>
+    </row>
+    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C761" s="16"/>
+    </row>
+    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C762" s="16"/>
+    </row>
+    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C763" s="16"/>
+    </row>
+    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C764" s="16"/>
+    </row>
+    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C765" s="16"/>
+    </row>
+    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C766" s="16"/>
+    </row>
+    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C767" s="16"/>
+    </row>
+    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C768" s="16"/>
+    </row>
+    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C769" s="16"/>
+    </row>
+    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C770" s="16"/>
+    </row>
+    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C771" s="16"/>
+    </row>
+    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C772" s="16"/>
+    </row>
+    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C773" s="16"/>
+    </row>
+    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C774" s="16"/>
+    </row>
+    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C775" s="16"/>
+    </row>
+    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C776" s="16"/>
+    </row>
+    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C777" s="16"/>
+    </row>
+    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C778" s="16"/>
+    </row>
+    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C779" s="16"/>
+    </row>
+    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C780" s="16"/>
+    </row>
+    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C781" s="16"/>
+    </row>
+    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C782" s="16"/>
+    </row>
+    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C783" s="16"/>
+    </row>
+    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C784" s="16"/>
+    </row>
+    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C785" s="16"/>
+    </row>
+    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C786" s="16"/>
+    </row>
+    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C787" s="16"/>
+    </row>
+    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C788" s="16"/>
+    </row>
+    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C789" s="16"/>
+    </row>
+    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C790" s="16"/>
+    </row>
+    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C791" s="16"/>
+    </row>
+    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C792" s="16"/>
+    </row>
+    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C793" s="16"/>
+    </row>
+    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C794" s="16"/>
+    </row>
+    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C795" s="16"/>
+    </row>
+    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C796" s="16"/>
+    </row>
+    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C797" s="16"/>
+    </row>
+    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C798" s="16"/>
+    </row>
+    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C799" s="16"/>
+    </row>
+    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C800" s="16"/>
+    </row>
+    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C801" s="16"/>
+    </row>
+    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C802" s="16"/>
+    </row>
+    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C803" s="16"/>
+    </row>
+    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C804" s="16"/>
+    </row>
+    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C805" s="16"/>
+    </row>
+    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C806" s="16"/>
+    </row>
+    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C807" s="16"/>
+    </row>
+    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C808" s="16"/>
+    </row>
+    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C809" s="16"/>
+    </row>
+    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C810" s="16"/>
+    </row>
+    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C811" s="16"/>
+    </row>
+    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C812" s="16"/>
+    </row>
+    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C813" s="16"/>
+    </row>
+    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C814" s="16"/>
+    </row>
+    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C815" s="16"/>
+    </row>
+    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C816" s="16"/>
+    </row>
+    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C817" s="16"/>
+    </row>
+    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C818" s="16"/>
+    </row>
+    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C819" s="16"/>
+    </row>
+    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C820" s="16"/>
+    </row>
+    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C821" s="16"/>
+    </row>
+    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C822" s="16"/>
+    </row>
+    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C823" s="16"/>
+    </row>
+    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C824" s="16"/>
+    </row>
+    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C825" s="16"/>
+    </row>
+    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C826" s="16"/>
+    </row>
+    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C827" s="16"/>
+    </row>
+    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C828" s="16"/>
+    </row>
+    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C829" s="16"/>
+    </row>
+    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C830" s="16"/>
+    </row>
+    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C831" s="16"/>
+    </row>
+    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C832" s="16"/>
+    </row>
+    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C833" s="16"/>
+    </row>
+    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C834" s="16"/>
+    </row>
+    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C835" s="16"/>
+    </row>
+    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C836" s="16"/>
+    </row>
+    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C837" s="16"/>
+    </row>
+    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C838" s="16"/>
+    </row>
+    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C839" s="16"/>
+    </row>
+    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C840" s="16"/>
+    </row>
+    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C841" s="16"/>
+    </row>
+    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C842" s="16"/>
+    </row>
+    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C843" s="16"/>
+    </row>
+    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C844" s="16"/>
+    </row>
+    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C845" s="16"/>
+    </row>
+    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C846" s="16"/>
+    </row>
+    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C847" s="16"/>
+    </row>
+    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C848" s="16"/>
+    </row>
+    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C849" s="16"/>
+    </row>
+    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C850" s="16"/>
+    </row>
+    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C851" s="16"/>
+    </row>
+    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C852" s="16"/>
+    </row>
+    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C853" s="16"/>
+    </row>
+    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C854" s="16"/>
+    </row>
+    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C855" s="16"/>
+    </row>
+    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C856" s="16"/>
+    </row>
+    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C857" s="16"/>
+    </row>
+    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C858" s="16"/>
+    </row>
+    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C859" s="16"/>
+    </row>
+    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C860" s="16"/>
+    </row>
+    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C861" s="16"/>
+    </row>
+    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C862" s="16"/>
+    </row>
+    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C863" s="16"/>
+    </row>
+    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C864" s="16"/>
+    </row>
+    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C865" s="16"/>
+    </row>
+    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C866" s="16"/>
+    </row>
+    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C867" s="16"/>
+    </row>
+    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C868" s="16"/>
+    </row>
+    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C869" s="16"/>
+    </row>
+    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C870" s="16"/>
+    </row>
+    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C871" s="16"/>
+    </row>
+    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C872" s="16"/>
+    </row>
+    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C873" s="16"/>
+    </row>
+    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C874" s="16"/>
+    </row>
+    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C875" s="16"/>
+    </row>
+    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C876" s="16"/>
+    </row>
+    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C877" s="16"/>
+    </row>
+    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C878" s="16"/>
+    </row>
+    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C879" s="16"/>
+    </row>
+    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C880" s="16"/>
+    </row>
+    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C881" s="16"/>
+    </row>
+    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C882" s="16"/>
+    </row>
+    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C883" s="16"/>
+    </row>
+    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C884" s="16"/>
+    </row>
+    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C885" s="16"/>
+    </row>
+    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C886" s="16"/>
+    </row>
+    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C887" s="16"/>
+    </row>
+    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C888" s="16"/>
+    </row>
+    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C889" s="16"/>
+    </row>
+    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C890" s="16"/>
+    </row>
+    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C891" s="16"/>
+    </row>
+    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C892" s="16"/>
+    </row>
+    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C893" s="16"/>
+    </row>
+    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C894" s="16"/>
+    </row>
+    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C895" s="16"/>
+    </row>
+    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C896" s="16"/>
+    </row>
+    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C897" s="16"/>
+    </row>
+    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C898" s="16"/>
+    </row>
+    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C899" s="16"/>
+    </row>
+    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C900" s="16"/>
+    </row>
+    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C901" s="16"/>
+    </row>
+    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C902" s="16"/>
+    </row>
+    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C903" s="16"/>
+    </row>
+    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C904" s="16"/>
+    </row>
+    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C905" s="16"/>
+    </row>
+    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C906" s="16"/>
+    </row>
+    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C907" s="16"/>
+    </row>
+    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C908" s="16"/>
+    </row>
+    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C909" s="16"/>
+    </row>
+    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C910" s="16"/>
+    </row>
+    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C911" s="16"/>
+    </row>
+    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C912" s="16"/>
+    </row>
+    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C913" s="16"/>
+    </row>
+    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C914" s="16"/>
+    </row>
+    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C915" s="16"/>
+    </row>
+    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C916" s="16"/>
+    </row>
+    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C917" s="16"/>
+    </row>
+    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C918" s="16"/>
+    </row>
+    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C919" s="16"/>
+    </row>
+    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C920" s="16"/>
+    </row>
+    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C921" s="16"/>
+    </row>
+    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C922" s="16"/>
+    </row>
+    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C923" s="16"/>
+    </row>
+    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C924" s="16"/>
+    </row>
+    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C925" s="16"/>
+    </row>
+    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C926" s="16"/>
+    </row>
+    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C927" s="16"/>
+    </row>
+    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C928" s="16"/>
+    </row>
+    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C929" s="16"/>
+    </row>
+    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C930" s="16"/>
+    </row>
+    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C931" s="16"/>
+    </row>
+    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C932" s="16"/>
+    </row>
+    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C933" s="16"/>
+    </row>
+    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C934" s="16"/>
+    </row>
+    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C935" s="16"/>
+    </row>
+    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C936" s="16"/>
+    </row>
+    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C937" s="16"/>
+    </row>
+    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C938" s="16"/>
+    </row>
+    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C939" s="16"/>
+    </row>
+    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C940" s="16"/>
+    </row>
+    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C941" s="16"/>
+    </row>
+    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C942" s="16"/>
+    </row>
+    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C943" s="16"/>
+    </row>
+    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C944" s="16"/>
+    </row>
+    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C945" s="16"/>
+    </row>
+    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C946" s="16"/>
+    </row>
+    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C947" s="16"/>
+    </row>
+    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C948" s="16"/>
+    </row>
+    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C949" s="16"/>
+    </row>
+    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C950" s="16"/>
+    </row>
+    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C951" s="16"/>
+    </row>
+    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C952" s="16"/>
+    </row>
+    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C953" s="16"/>
+    </row>
+    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C954" s="16"/>
+    </row>
+    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C955" s="16"/>
+    </row>
+    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C956" s="16"/>
+    </row>
+    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C957" s="16"/>
+    </row>
+    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C958" s="16"/>
+    </row>
+    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C959" s="16"/>
+    </row>
+    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C960" s="16"/>
+    </row>
+    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C961" s="16"/>
+    </row>
+    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C962" s="16"/>
+    </row>
+    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C963" s="16"/>
+    </row>
+    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C964" s="16"/>
+    </row>
+    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C965" s="16"/>
+    </row>
+    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C966" s="16"/>
+    </row>
+    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C967" s="16"/>
+    </row>
+    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C968" s="16"/>
+    </row>
+    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C969" s="16"/>
+    </row>
+    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C970" s="16"/>
+    </row>
+    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C971" s="16"/>
+    </row>
+    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C972" s="16"/>
+    </row>
+    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C973" s="16"/>
+    </row>
+    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C974" s="16"/>
+    </row>
+    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C975" s="16"/>
+    </row>
+    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C976" s="16"/>
+    </row>
+    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C977" s="16"/>
+    </row>
+    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C978" s="16"/>
+    </row>
+    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C979" s="16"/>
+    </row>
+    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C980" s="16"/>
+    </row>
+    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C981" s="16"/>
+    </row>
+    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C982" s="16"/>
+    </row>
+    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C983" s="16"/>
+    </row>
+    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C984" s="16"/>
+    </row>
+    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C985" s="16"/>
+    </row>
+    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C986" s="16"/>
+    </row>
+    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C987" s="16"/>
+    </row>
+    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C988" s="16"/>
+    </row>
+    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C989" s="16"/>
+    </row>
+    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C990" s="16"/>
+    </row>
+    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C991" s="16"/>
+    </row>
+    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C992" s="16"/>
+    </row>
+    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C993" s="16"/>
+    </row>
+    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C994" s="16"/>
+    </row>
+    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C995" s="16"/>
+    </row>
+    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C996" s="16"/>
+    </row>
+    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C997" s="16"/>
+    </row>
+    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C998" s="16"/>
+    </row>
+    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C999" s="16"/>
+    </row>
+    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1000" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C5D20-66A4-4D52-A9CB-85976212C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4068698E-5A84-4B9C-8C1A-6BCFE8146444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Sprint 1" sheetId="3" r:id="rId5"/>
     <sheet name="Stories" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
   <si>
     <t>Initials</t>
   </si>
@@ -202,9 +199,6 @@
     <t>Unique first names in families</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Est Size</t>
   </si>
   <si>
@@ -572,6 +566,30 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>icruz1@stevens.edu</t>
+  </si>
+  <si>
+    <t>isabellajoelle</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Keep collaboating with team</t>
+  </si>
+  <si>
+    <t>Burnout</t>
   </si>
 </sst>
 </file>
@@ -582,7 +600,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +655,17 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -661,12 +690,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -700,11 +731,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{0EA4E4B3-1A27-4C38-A08E-36F6500BFF7A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{6533BBAD-890D-4359-8423-D7C1FF792F0E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A6511544-F543-4CB1-98D3-5664C8699E6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,30 +787,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]Burndown README'!$B$15:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>42527</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42540</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42554</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42582</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'[1]Burndown README'!$C$15:$C$20</c:f>
@@ -802,6 +813,40 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Burndown README'!$B$15:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>42527</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42540</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42554</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42568</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42582</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E6A4-44E8-A991-8920695C20A5}"/>
             </c:ext>
@@ -846,7 +891,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -870,7 +915,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="261410492"/>
@@ -980,27 +1025,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Burndown!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44732</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Burndown!$B$2:$B$7</c:f>
@@ -1024,6 +1048,37 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Burndown!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>44718</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44725</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44729</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44732</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06DA-4922-8158-DD498E20EB64}"/>
             </c:ext>
@@ -1068,7 +1123,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1092,7 +1147,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2018318546"/>
@@ -1797,107 +1852,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Team"/>
-      <sheetName val="Backlog"/>
-      <sheetName val="Burndown README"/>
-      <sheetName val="Burndown"/>
-      <sheetName val="Sprint1"/>
-      <sheetName val="Sprint2"/>
-      <sheetName val="Sprint3"/>
-      <sheetName val="Sprint4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="15">
-          <cell r="B15">
-            <v>42527</v>
-          </cell>
-          <cell r="C15">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>42540</v>
-          </cell>
-          <cell r="C16">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>42554</v>
-          </cell>
-          <cell r="C17">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>42568</v>
-          </cell>
-          <cell r="C18">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>42582</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="A2">
-            <v>44718</v>
-          </cell>
-          <cell r="B2">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>44725</v>
-          </cell>
-          <cell r="B3">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44729</v>
-          </cell>
-          <cell r="B4">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>44732</v>
-          </cell>
-          <cell r="B5">
-            <v>6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2197,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48251613-E51F-457C-A390-67FEF2132086}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,12 +2214,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2273,9 +2244,10 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A2B18543-38BC-4C5A-AF13-0461EE9B50D6}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{289A3E5E-D18A-4BCC-B297-937AA1A9B96B}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{6B0B20D6-E624-4008-87FF-8052F9F987A3}"/>
+    <hyperlink ref="D4" r:id="rId4" display="mailto:icruz1@stevens.edu" xr:uid="{F4425E6F-F57F-4EFC-94A3-26792677A402}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2284,7 +2256,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="D12" activeCellId="1" sqref="D23:D25 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2292,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -2335,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -2350,7 +2322,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2369,7 +2341,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -2378,12 +2350,12 @@
         <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>30</v>
@@ -2406,7 +2378,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,12 +2392,12 @@
         <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -2434,12 +2406,12 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>38</v>
@@ -2453,7 +2425,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
@@ -2462,12 +2434,12 @@
         <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>42</v>
@@ -2476,12 +2448,12 @@
         <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>44</v>
@@ -2490,12 +2462,12 @@
         <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>46</v>
@@ -2504,12 +2476,12 @@
         <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>48</v>
@@ -2518,12 +2490,12 @@
         <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>50</v>
@@ -2536,54 +2508,116 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2602,19 +2636,19 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -2624,13 +2658,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -2640,7 +2674,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -2669,22 +2703,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2697,7 +2731,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="12">
         <v>42527</v>
@@ -2713,7 +2747,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="12">
         <v>42540</v>
@@ -2738,7 +2772,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="12">
         <v>42554</v>
@@ -2763,7 +2797,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="12">
         <v>42568</v>
@@ -2788,7 +2822,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="12">
         <v>42582</v>
@@ -2937,22 +2971,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3148,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9483B-7C01-4C77-A27D-CBB71DE53C8D}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,7 +3200,7 @@
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3180,19 +3214,19 @@
         <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3202,17 +3236,26 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
         <v>120</v>
+      </c>
+      <c r="G2" s="21">
+        <v>25</v>
+      </c>
+      <c r="H2" s="21">
+        <v>300</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3222,17 +3265,26 @@
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
         <v>120</v>
+      </c>
+      <c r="G3" s="21">
+        <v>25</v>
+      </c>
+      <c r="H3" s="21">
+        <v>300</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,17 +3294,26 @@
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>58</v>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
         <v>120</v>
+      </c>
+      <c r="G4" s="21">
+        <v>25</v>
+      </c>
+      <c r="H4" s="21">
+        <v>300</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3262,11 +3323,11 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -3274,18 +3335,77 @@
       <c r="F5">
         <v>120</v>
       </c>
+      <c r="G5" s="21">
+        <v>25</v>
+      </c>
+      <c r="H5" s="21">
+        <v>300</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6" s="21">
+        <v>25</v>
+      </c>
+      <c r="H6" s="21">
+        <v>300</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7" s="21">
+        <v>25</v>
+      </c>
+      <c r="H7" s="21">
+        <v>300</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,18 +3413,26 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -3371,7 +3499,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3382,7 +3510,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3393,7 +3521,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,7 +3532,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3426,7 +3554,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3448,7 +3576,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,7 +3587,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3470,29 +3598,29 @@
         <v>39</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3503,7 +3631,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3514,7 +3642,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3525,84 +3653,84 @@
         <v>45</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3613,7 +3741,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3624,7 +3752,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3635,194 +3763,194 @@
         <v>51</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4068698E-5A84-4B9C-8C1A-6BCFE8146444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046E25C-96F1-4B99-B9E0-A61944A5E2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="Burndown README" sheetId="4" r:id="rId3"/>
     <sheet name="Burndown" sheetId="5" r:id="rId4"/>
     <sheet name="Sprint 1" sheetId="3" r:id="rId5"/>
-    <sheet name="Stories" sheetId="7" r:id="rId6"/>
+    <sheet name="Sprint 2" sheetId="8" r:id="rId6"/>
+    <sheet name="Stories" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -586,10 +590,25 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Keep collaboating with team</t>
-  </si>
-  <si>
     <t>Burnout</t>
+  </si>
+  <si>
+    <t>Delaying team meetings</t>
+  </si>
+  <si>
+    <t>Keep collaborating with team</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -600,7 +619,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +685,22 @@
       <color theme="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -697,7 +732,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -733,6 +768,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -996,7 +1038,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
+  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -1006,31 +1048,78 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Burndown!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -1045,42 +1134,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Burndown!$A$2:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>44718</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>44725</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>44729</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>44732</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06DA-4922-8158-DD498E20EB64}"/>
+              <c16:uniqueId val="{00000005-48E0-4DE2-B68F-A609A5535D5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1092,65 +1150,117 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1881607879"/>
-        <c:axId val="2018318546"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1881607879"/>
+        <c:axId val="739441391"/>
+        <c:axId val="739440143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="739441391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2018318546"/>
+        <c:crossAx val="739440143"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2018318546"/>
+        <c:axId val="739440143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,70 +1268,703 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881607879"/>
+        <c:crossAx val="739441391"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1816,26 +2559,29 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3886200" cy="2619375"/>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B62013-8FF5-4236-8D4E-78CA1C758340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3599EF86-A749-ABE5-CE5A-28A7E55AB32A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1847,9 +2593,22 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Burndown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2256,7 +3015,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="D23:D25 D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,9 +3051,11 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -2307,9 +3068,11 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -2322,7 +3085,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,6 +3104,9 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2352,6 +3121,9 @@
       <c r="D6" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2364,7 +3136,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,7 +3153,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,7 +3167,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,7 +3181,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,7 +3223,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,7 +3237,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,7 +3251,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,7 +3265,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,7 +3307,7 @@
         <v>137</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,7 +3321,7 @@
         <v>143</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,7 +3335,7 @@
         <v>146</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,7 +3349,7 @@
         <v>152</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,7 +3391,7 @@
         <v>164</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +3404,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,10 +3739,16 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -2995,7 +3776,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44718</v>
+        <v>44830</v>
       </c>
       <c r="B2" s="4">
         <v>24</v>
@@ -3010,7 +3791,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>44725</v>
+        <v>44837</v>
       </c>
       <c r="B3" s="4">
         <v>18</v>
@@ -3032,7 +3813,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44729</v>
+        <v>44844</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -3048,7 +3829,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>44732</v>
+        <v>44851</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -3182,10 +3963,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9483B-7C01-4C77-A27D-CBB71DE53C8D}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,7 +4200,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,6 +4213,11 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3441,11 +4227,213 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180101A1-B95D-45DC-A1F9-B5ECF4BF83E7}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="B15" activeCellId="1" sqref="B14 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046E25C-96F1-4B99-B9E0-A61944A5E2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C123EED-F285-44ED-AF00-ED3BEA8B05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -3739,7 +3739,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9483B-7C01-4C77-A27D-CBB71DE53C8D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180101A1-B95D-45DC-A1F9-B5ECF4BF83E7}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\School\CS555\project\cs555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C123EED-F285-44ED-AF00-ED3BEA8B05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29075C95-F8C4-4741-A0AA-C72512BA7434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Burndown" sheetId="5" r:id="rId4"/>
     <sheet name="Sprint 1" sheetId="3" r:id="rId5"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId6"/>
-    <sheet name="Stories" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint 3" sheetId="9" r:id="rId7"/>
+    <sheet name="Stories" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -619,7 +620,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +701,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -836,18 +843,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -867,22 +877,25 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>42527</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>42540</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>42554</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>42568</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>42582</c:v>
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -933,7 +946,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2603,9 +2616,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Burndown"/>
+      <sheetName val="Burndown README"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2914,15 +2929,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2956,7 +2971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -2990,7 +3005,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3014,16 +3029,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5089F6BA-D448-47B4-AE24-DF66C8EF4E69}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3057,7 +3072,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3074,7 +3089,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3091,7 +3106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3125,7 +3140,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3142,7 +3157,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3155,8 +3170,11 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3169,8 +3187,11 @@
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3183,8 +3204,11 @@
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3197,8 +3221,11 @@
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3211,8 +3238,11 @@
       <c r="D12" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3225,8 +3255,11 @@
       <c r="D13" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3239,8 +3272,9 @@
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3254,7 +3288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -3268,7 +3302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3282,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3296,7 +3330,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3310,7 +3344,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3324,7 +3358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3338,7 +3372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3352,7 +3386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3366,7 +3400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3380,7 +3414,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3403,77 +3437,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87608DE-7EE8-477B-B354-D3A5B0DE9B55}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3504,7 +3538,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -3520,7 +3554,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -3545,7 +3579,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -3570,7 +3604,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -3595,7 +3629,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -3620,111 +3654,111 @@
         <v>148.9655172413793</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="F46" s="9"/>
     </row>
@@ -3742,15 +3776,15 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
@@ -3774,7 +3808,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>44830</v>
       </c>
@@ -3789,7 +3823,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>44837</v>
       </c>
@@ -3811,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>44844</v>
       </c>
@@ -3827,7 +3861,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>44851</v>
       </c>
@@ -3843,115 +3877,115 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
@@ -3965,23 +3999,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9483B-7C01-4C77-A27D-CBB71DE53C8D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4010,7 +4044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4039,7 +4073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4068,7 +4102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4097,7 +4131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4126,7 +4160,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4155,7 +4189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -4184,39 +4218,39 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -4230,21 +4264,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180101A1-B95D-45DC-A1F9-B5ECF4BF83E7}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4273,7 +4307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4292,8 +4326,17 @@
       <c r="F2">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4312,8 +4355,17 @@
       <c r="F3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4332,8 +4384,17 @@
       <c r="F4">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4352,8 +4413,17 @@
       <c r="F5">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4372,8 +4442,17 @@
       <c r="F6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4392,33 +4471,42 @@
       <c r="F7">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
         <v>186</v>
       </c>
@@ -4429,23 +4517,197 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A728D4E-6196-47CF-B7F5-353323ADCD08}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B15" activeCellId="1" sqref="B14 B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" style="15" customWidth="1"/>
     <col min="3" max="3" width="95" style="15" customWidth="1"/>
-    <col min="4" max="26" width="12.28515625" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="16.42578125" style="15"/>
+    <col min="4" max="26" width="12.26953125" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="16.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -4479,7 +4741,7 @@
       <c r="Y1" s="19"/>
       <c r="Z1" s="19"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
@@ -4490,7 +4752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -4501,7 +4763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -4512,7 +4774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -4523,7 +4785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
@@ -4534,7 +4796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
@@ -4545,7 +4807,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>32</v>
       </c>
@@ -4556,7 +4818,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
@@ -4567,7 +4829,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>36</v>
       </c>
@@ -4578,7 +4840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>38</v>
       </c>
@@ -4589,7 +4851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>91</v>
       </c>
@@ -4600,7 +4862,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>94</v>
       </c>
@@ -4611,7 +4873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>40</v>
       </c>
@@ -4622,7 +4884,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -4633,7 +4895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>44</v>
       </c>
@@ -4644,7 +4906,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>100</v>
       </c>
@@ -4655,7 +4917,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>103</v>
       </c>
@@ -4666,7 +4928,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>106</v>
       </c>
@@ -4677,7 +4939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>109</v>
       </c>
@@ -4688,7 +4950,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>112</v>
       </c>
@@ -4699,7 +4961,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>115</v>
       </c>
@@ -4710,7 +4972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>118</v>
       </c>
@@ -4721,7 +4983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>46</v>
       </c>
@@ -4732,7 +4994,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>48</v>
       </c>
@@ -4743,7 +5005,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>50</v>
       </c>
@@ -4754,7 +5016,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>124</v>
       </c>
@@ -4765,7 +5027,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>127</v>
       </c>
@@ -4776,7 +5038,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>130</v>
       </c>
@@ -4787,7 +5049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>133</v>
       </c>
@@ -4798,7 +5060,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>136</v>
       </c>
@@ -4809,7 +5071,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>139</v>
       </c>
@@ -4820,7 +5082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>142</v>
       </c>
@@ -4831,7 +5093,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>145</v>
       </c>
@@ -4842,7 +5104,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>148</v>
       </c>
@@ -4853,7 +5115,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>151</v>
       </c>
@@ -4864,7 +5126,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>154</v>
       </c>
@@ -4875,7 +5137,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>157</v>
       </c>
@@ -4886,7 +5148,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>160</v>
       </c>
@@ -4897,7 +5159,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>163</v>
       </c>
@@ -4908,7 +5170,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>166</v>
       </c>
@@ -4919,7 +5181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>169</v>
       </c>
@@ -4930,7 +5192,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>172</v>
       </c>
@@ -4941,2875 +5203,2875 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="16"/>
     </row>
-    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="16"/>
     </row>
-    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="16"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="16"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="16"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="16"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="16"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="16"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="16"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="16"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="16"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="16"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="16"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="16"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="16"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="16"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="16"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="16"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="16"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="16"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="16"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="16"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="16"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="16"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="16"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="16"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="16"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="16"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="16"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="16"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="16"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="16"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="16"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="16"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="16"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="16"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="16"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="16"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="16"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="16"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="16"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="16"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="16"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="16"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="16"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="16"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="16"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="16"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="16"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="16"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="16"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="16"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="16"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="16"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="16"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="16"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="16"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="16"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="16"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="16"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="16"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="16"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="16"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="16"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="16"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="16"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="16"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="16"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="16"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="16"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="16"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="16"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="16"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="16"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="16"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="16"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="16"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="16"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="16"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="16"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="16"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="16"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="16"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="16"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="16"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="16"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="16"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="16"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="16"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="16"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="16"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="16"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="16"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="16"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="16"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="16"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="16"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="16"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="16"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="16"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="16"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="16"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="16"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="16"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="16"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="16"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="16"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="16"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="16"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="16"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="16"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="16"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="16"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="16"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="16"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="16"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="16"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="16"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="16"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="16"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="16"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="16"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="16"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="16"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="16"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="16"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="16"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="16"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="16"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="16"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="16"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="16"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="16"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="16"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="16"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="16"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="16"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="16"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="16"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="16"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="16"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="16"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="16"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="16"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="16"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="16"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="16"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="16"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="16"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="16"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="16"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="16"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="16"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="16"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="16"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="16"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="16"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="16"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="16"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="16"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="16"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="16"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="16"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="16"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="16"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="16"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="16"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="16"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="16"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="16"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="16"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="16"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="16"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="16"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="16"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="16"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="16"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="16"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="16"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="16"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="16"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="16"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="16"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="16"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="16"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="16"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="16"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="16"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="16"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="16"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="16"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="16"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="16"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="16"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="16"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="16"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="16"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="16"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="16"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="16"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="16"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="16"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="16"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="16"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="16"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="16"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="16"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="16"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="16"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="16"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="16"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="16"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="16"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="16"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="16"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="16"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="16"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="16"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="16"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="16"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="16"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="16"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="16"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="16"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="16"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="16"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="16"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="16"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="16"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="16"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="16"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="16"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="16"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="16"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="16"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="16"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="16"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="16"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="16"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="16"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="16"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="16"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="16"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="16"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="16"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="16"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="16"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="16"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="16"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="16"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="16"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="16"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="16"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="16"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="16"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="16"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="16"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="16"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="16"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="16"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="16"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="16"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="16"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="16"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="16"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="16"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="16"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="16"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="16"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="16"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="16"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="16"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="16"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="16"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="16"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="16"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="16"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="16"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="16"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="16"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="16"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="16"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="16"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="16"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="16"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="16"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="16"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="16"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="16"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="16"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="16"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="16"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="16"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="16"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="16"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="16"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="16"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="16"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="16"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="16"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="16"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="16"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="16"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="16"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="16"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="16"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="16"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="16"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="16"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="16"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="16"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="16"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="16"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="16"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="16"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="16"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="16"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="16"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="16"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="16"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="16"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="16"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="16"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="16"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="16"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="16"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="16"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="16"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="16"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="16"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="16"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="16"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="16"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="16"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="16"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="16"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="16"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="16"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="16"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="16"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="16"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="16"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="16"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="16"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="16"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="16"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="16"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="16"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="16"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="16"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="16"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="16"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="16"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="16"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="16"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="16"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="16"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="16"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="16"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="16"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="16"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="16"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="16"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="16"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="16"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="16"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="16"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="16"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="16"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="16"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="16"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="16"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="16"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="16"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="16"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="16"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="16"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="16"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="16"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="16"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="16"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="16"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="16"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="16"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="16"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="16"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="16"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="16"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="16"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="16"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="16"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="16"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="16"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="16"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="16"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="16"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="16"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="16"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="16"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="16"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="16"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="16"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="16"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="16"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="16"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="16"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="16"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="16"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="16"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="16"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="16"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="16"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="16"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="16"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="16"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="16"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="16"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="16"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="16"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="16"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="16"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="16"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="16"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="16"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="16"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="16"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="16"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="16"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="16"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="16"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="16"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="16"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="16"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="16"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="16"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="16"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="16"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="16"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="16"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="16"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="16"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="16"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="16"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="16"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="16"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="16"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="16"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="16"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="16"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="16"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="16"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="16"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="16"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="16"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="16"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="16"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="16"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="16"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="16"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="16"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="16"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="16"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="16"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="16"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="16"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="16"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="16"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="16"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="16"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="16"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="16"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="16"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="16"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="16"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="16"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="16"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="16"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="16"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="16"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="16"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="16"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="16"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="16"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="16"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="16"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="16"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="16"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="16"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="16"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="16"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="16"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="16"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="16"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="16"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="16"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="16"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="16"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="16"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="16"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="16"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="16"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="16"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="16"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="16"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="16"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="16"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="16"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="16"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="16"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="16"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="16"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="16"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="16"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="16"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="16"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="16"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="16"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="16"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="16"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="16"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="16"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="16"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="16"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="16"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="16"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="16"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="16"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="16"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="16"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="16"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="16"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="16"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="16"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="16"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="16"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="16"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="16"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="16"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="16"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="16"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="16"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="16"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="16"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="16"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="16"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="16"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="16"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="16"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="16"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="16"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="16"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="16"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="16"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="16"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="16"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="16"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="16"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="16"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="16"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="16"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="16"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="16"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="16"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="16"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="16"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="16"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="16"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="16"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="16"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="16"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="16"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="16"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="16"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="16"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="16"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="16"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="16"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="16"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="16"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="16"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="16"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="16"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="16"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="16"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="16"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="16"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="16"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="16"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="16"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="16"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="16"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="16"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="16"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="16"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="16"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="16"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="16"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="16"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="16"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="16"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="16"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="16"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="16"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="16"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="16"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="16"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="16"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="16"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="16"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="16"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="16"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="16"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="16"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="16"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="16"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="16"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="16"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="16"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="16"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="16"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="16"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="16"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="16"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="16"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="16"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="16"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="16"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="16"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="16"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="16"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="16"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="16"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="16"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="16"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="16"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="16"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="16"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="16"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="16"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="16"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="16"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="16"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="16"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="16"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="16"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="16"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="16"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="16"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="16"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="16"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="16"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="16"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="16"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="16"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="16"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="16"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="16"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="16"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="16"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="16"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="16"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="16"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="16"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="16"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="16"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="16"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="16"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="16"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="16"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="16"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="16"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="16"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="16"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="16"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="16"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="16"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="16"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="16"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="16"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="16"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="16"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="16"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="16"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="16"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="16"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="16"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="16"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="16"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="16"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="16"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="16"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="16"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="16"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="16"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="16"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="16"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="16"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="16"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="16"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="16"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="16"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="16"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="16"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="16"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="16"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="16"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="16"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="16"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="16"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="16"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="16"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="16"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="16"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="16"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="16"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="16"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="16"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="16"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="16"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="16"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="16"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="16"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="16"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="16"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="16"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="16"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="16"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="16"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="16"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="16"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="16"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="16"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="16"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="16"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="16"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="16"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="16"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="16"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="16"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="16"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="16"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="16"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="16"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="16"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="16"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="16"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="16"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="16"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="16"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="16"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="16"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="16"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="16"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="16"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="16"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="16"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="16"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="16"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="16"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="16"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="16"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="16"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="16"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="16"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="16"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="16"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="16"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="16"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="16"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="16"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="16"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="16"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="16"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="16"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="16"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="16"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="16"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="16"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="16"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="16"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="16"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="16"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="16"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="16"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="16"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="16"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="16"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="16"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="16"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="16"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="16"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="16"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="16"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="16"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="16"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="16"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="16"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="16"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="16"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="16"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="16"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="16"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="16"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="16"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="16"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="16"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="16"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="16"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="16"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="16"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="16"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="16"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="16"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="16"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="16"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="16"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="16"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="16"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="16"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="16"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="16"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="16"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="16"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="16"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="16"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="16"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="16"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="16"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="16"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="16"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="16"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="16"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="16"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="16"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="16"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="16"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="16"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="16"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="16"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="16"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="16"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="16"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="16"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="16"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="16"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="16"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="16"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="16"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="16"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="16"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="16"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="16"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="16"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="16"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="16"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="16"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="16"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="16"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="16"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="16"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="16"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="16"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="16"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="16"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="16"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="16"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="16"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="16"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="16"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="16"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="16"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="16"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="16"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="16"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="16"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="16"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C983" s="16"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C984" s="16"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C985" s="16"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C986" s="16"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C987" s="16"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C988" s="16"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C989" s="16"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C990" s="16"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C991" s="16"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C992" s="16"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C993" s="16"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C994" s="16"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C995" s="16"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C996" s="16"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C997" s="16"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C998" s="16"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C999" s="16"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1000" s="16"/>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\2022 Fall\CS 555\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29075C95-F8C4-4741-A0AA-C72512BA7434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DAB44-6A8B-4A02-BB99-00753F8FDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-144" yWindow="312" windowWidth="31008" windowHeight="17112" activeTab="6" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
   <si>
     <t>Initials</t>
   </si>
@@ -610,6 +610,12 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Birth after marriage of parents</t>
   </si>
 </sst>
 </file>
@@ -792,6 +798,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1202,6 +1276,31 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1308,6 +1407,31 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Stories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2631,7 +2755,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2929,15 +3053,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2954,7 +3078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +3112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -3005,7 +3129,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3029,16 +3153,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5089F6BA-D448-47B4-AE24-DF66C8EF4E69}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -3055,7 +3179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3072,7 +3196,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3089,7 +3213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3106,7 +3230,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3123,7 +3247,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3140,7 +3264,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3157,7 +3281,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3174,7 +3298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3191,7 +3315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3208,7 +3332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3225,7 +3349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3242,7 +3366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3259,7 +3383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3274,7 +3398,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3288,7 +3412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -3302,7 +3426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3316,7 +3440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3330,7 +3454,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3344,7 +3468,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3358,7 +3482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3372,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3386,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3400,7 +3524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3414,7 +3538,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3437,77 +3561,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87608DE-7EE8-477B-B354-D3A5B0DE9B55}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +3662,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -3554,7 +3678,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -3579,7 +3703,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -3604,7 +3728,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -3629,7 +3753,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -3654,111 +3778,111 @@
         <v>148.9655172413793</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="F46" s="9"/>
     </row>
@@ -3773,18 +3897,18 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
@@ -3808,7 +3932,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44830</v>
       </c>
@@ -3823,7 +3947,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44837</v>
       </c>
@@ -3845,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44844</v>
       </c>
@@ -3861,7 +3985,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44851</v>
       </c>
@@ -3877,115 +4001,115 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
@@ -3999,23 +4123,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9483B-7C01-4C77-A27D-CBB71DE53C8D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4044,7 +4168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4179,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -4073,7 +4197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4084,7 +4208,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -4102,7 +4226,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4113,7 +4237,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -4131,7 +4255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4142,7 +4266,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4160,7 +4284,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4171,7 +4295,7 @@
         <v>175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4189,7 +4313,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -4200,7 +4324,7 @@
         <v>175</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4218,39 +4342,39 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -4264,21 +4388,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180101A1-B95D-45DC-A1F9-B5ECF4BF83E7}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:I7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4307,7 +4431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4318,7 +4442,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -4336,18 +4460,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -4365,7 +4489,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4376,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -4394,7 +4518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4405,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4423,7 +4547,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4434,7 +4558,7 @@
         <v>175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4452,7 +4576,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4463,7 +4587,7 @@
         <v>175</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4481,32 +4605,32 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>186</v>
       </c>
@@ -4520,22 +4644,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A728D4E-6196-47CF-B7F5-353323ADCD08}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4564,7 +4688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -4584,7 +4708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -4604,7 +4728,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -4624,7 +4748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -4644,7 +4768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -4664,7 +4788,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -4694,20 +4818,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B15" activeCellId="1" sqref="B14 B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="15" customWidth="1"/>
     <col min="3" max="3" width="95" style="15" customWidth="1"/>
-    <col min="4" max="26" width="12.26953125" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="16.453125" style="15"/>
+    <col min="4" max="26" width="12.21875" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="16.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -4823,7 +4947,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>88</v>
@@ -5203,2875 +5327,2875 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="16"/>
     </row>
-    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="16"/>
     </row>
-    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="16"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="16"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="16"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="16"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="16"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="16"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="16"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="16"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="16"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="16"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="16"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="16"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="16"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="16"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="16"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="16"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="16"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="16"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="16"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="16"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="16"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="16"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="16"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="16"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="16"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="16"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="16"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="16"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="16"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="16"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="16"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="16"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="16"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="16"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="16"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="16"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="16"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="16"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="16"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="16"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="16"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="16"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="16"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="16"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="16"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="16"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="16"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="16"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="16"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="16"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="16"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="16"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="16"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="16"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="16"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="16"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="16"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="16"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="16"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="16"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="16"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="16"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="16"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="16"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="16"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="16"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="16"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="16"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="16"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="16"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="16"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="16"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="16"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="16"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="16"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="16"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="16"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="16"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="16"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="16"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="16"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="16"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="16"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="16"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="16"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="16"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="16"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="16"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="16"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="16"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C193" s="16"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C194" s="16"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C195" s="16"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C196" s="16"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C197" s="16"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C198" s="16"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C199" s="16"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C200" s="16"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C201" s="16"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C202" s="16"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C203" s="16"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" s="16"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C205" s="16"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C206" s="16"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C207" s="16"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C208" s="16"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C209" s="16"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C212" s="16"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C213" s="16"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C214" s="16"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="16"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="16"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="16"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="16"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="16"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="16"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="16"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="16"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="16"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="16"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C225" s="16"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C226" s="16"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C227" s="16"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C228" s="16"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C229" s="16"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C230" s="16"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C231" s="16"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C232" s="16"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C233" s="16"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C234" s="16"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C236" s="16"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="16"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="16"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C239" s="16"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C240" s="16"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C241" s="16"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C242" s="16"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C243" s="16"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C244" s="16"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C245" s="16"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C246" s="16"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C247" s="16"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C248" s="16"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="16"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="16"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C251" s="16"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C252" s="16"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C253" s="16"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C254" s="16"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C255" s="16"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C256" s="16"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C257" s="16"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C258" s="16"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C259" s="16"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C260" s="16"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="16"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="16"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="16"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="16"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="16"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="16"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="16"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="16"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="16"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="16"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="16"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="16"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C273" s="16"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C274" s="16"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C275" s="16"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C276" s="16"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C277" s="16"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C278" s="16"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C279" s="16"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C280" s="16"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C281" s="16"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C282" s="16"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C283" s="16"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C284" s="16"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C285" s="16"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C286" s="16"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C287" s="16"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C288" s="16"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C289" s="16"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C290" s="16"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C291" s="16"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C292" s="16"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C293" s="16"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C294" s="16"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C295" s="16"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C296" s="16"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C297" s="16"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C298" s="16"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C299" s="16"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C300" s="16"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C301" s="16"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C302" s="16"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C303" s="16"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C304" s="16"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C305" s="16"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C306" s="16"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C307" s="16"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C308" s="16"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C309" s="16"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C310" s="16"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C311" s="16"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C312" s="16"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C313" s="16"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C314" s="16"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C315" s="16"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C316" s="16"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C317" s="16"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C318" s="16"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C319" s="16"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C320" s="16"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C321" s="16"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C322" s="16"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C323" s="16"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C324" s="16"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C325" s="16"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C326" s="16"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="16"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="16"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="16"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="16"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="16"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="16"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="16"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="16"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="16"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="16"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C337" s="16"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C338" s="16"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C339" s="16"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C340" s="16"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="16"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="16"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C343" s="16"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C344" s="16"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C345" s="16"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C346" s="16"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C347" s="16"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C348" s="16"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C349" s="16"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C350" s="16"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C351" s="16"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C352" s="16"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="16"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="16"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="16"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="16"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="16"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="16"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="16"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="16"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="16"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="16"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="16"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="16"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C365" s="16"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C366" s="16"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C367" s="16"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C368" s="16"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C369" s="16"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C370" s="16"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C371" s="16"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C372" s="16"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C373" s="16"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="16"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="16"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="16"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C377" s="16"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C378" s="16"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C379" s="16"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C380" s="16"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C381" s="16"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C382" s="16"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C383" s="16"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C384" s="16"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C385" s="16"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C386" s="16"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="16"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="16"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C389" s="16"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C390" s="16"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="16"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="16"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="16"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C394" s="16"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C395" s="16"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C396" s="16"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C397" s="16"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C398" s="16"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="16"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="16"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="16"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="16"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="16"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="16"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="16"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="16"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="16"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="16"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="16"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="16"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C411" s="16"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C412" s="16"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C413" s="16"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C414" s="16"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C415" s="16"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C416" s="16"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C417" s="16"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C418" s="16"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C419" s="16"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C420" s="16"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C421" s="16"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="16"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C423" s="16"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="16"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="16"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="16"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="16"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C428" s="16"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C429" s="16"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C430" s="16"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C431" s="16"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C432" s="16"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C433" s="16"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C434" s="16"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="16"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="16"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="16"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="16"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="16"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="16"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="16"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="16"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="16"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="16"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="16"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="16"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="16"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="16"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="16"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C450" s="16"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C451" s="16"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C452" s="16"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C453" s="16"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C454" s="16"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C455" s="16"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C456" s="16"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C457" s="16"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C458" s="16"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C459" s="16"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C460" s="16"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C461" s="16"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C462" s="16"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C463" s="16"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C464" s="16"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C465" s="16"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C466" s="16"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C467" s="16"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C468" s="16"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C469" s="16"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C470" s="16"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C471" s="16"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="16"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="16"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="16"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="16"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="16"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="16"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="16"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="16"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="16"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="16"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="16"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C483" s="16"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C484" s="16"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C485" s="16"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C486" s="16"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C487" s="16"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C488" s="16"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C489" s="16"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C490" s="16"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C491" s="16"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C492" s="16"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="16"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="16"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="16"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="16"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="16"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="16"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="16"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="16"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="16"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="16"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="16"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C504" s="16"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C505" s="16"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C506" s="16"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C507" s="16"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C508" s="16"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C509" s="16"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C510" s="16"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C511" s="16"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C512" s="16"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C513" s="16"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="16"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="16"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="16"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="16"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="16"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="16"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="16"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="16"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="16"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="16"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="16"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C525" s="16"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C526" s="16"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C527" s="16"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C528" s="16"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C529" s="16"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C530" s="16"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C531" s="16"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C532" s="16"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C533" s="16"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C534" s="16"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="16"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="16"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="16"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="16"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="16"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="16"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="16"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="16"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="16"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="16"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="16"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C546" s="16"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C547" s="16"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C548" s="16"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C549" s="16"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C550" s="16"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C551" s="16"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C552" s="16"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C553" s="16"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C554" s="16"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C555" s="16"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="16"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="16"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="16"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="16"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="16"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="16"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="16"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="16"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="16"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="16"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="16"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="16"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="16"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="16"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="16"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="16"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="16"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="16"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="16"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="16"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="16"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="16"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="16"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="16"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="16"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="16"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="16"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="16"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="16"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="16"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="16"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="16"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="16"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="16"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="16"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="16"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="16"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C593" s="16"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C594" s="16"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C595" s="16"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C596" s="16"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C597" s="16"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C598" s="16"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C599" s="16"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C600" s="16"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C601" s="16"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C602" s="16"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C603" s="16"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C604" s="16"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C605" s="16"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C606" s="16"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C607" s="16"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C608" s="16"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C609" s="16"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C610" s="16"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C611" s="16"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C612" s="16"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C613" s="16"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C614" s="16"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C615" s="16"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C616" s="16"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C617" s="16"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C618" s="16"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C619" s="16"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C620" s="16"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C621" s="16"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C622" s="16"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C623" s="16"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C624" s="16"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C625" s="16"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C626" s="16"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C627" s="16"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C628" s="16"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C629" s="16"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C630" s="16"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C631" s="16"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C632" s="16"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C633" s="16"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C634" s="16"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C635" s="16"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C636" s="16"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C637" s="16"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C638" s="16"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C639" s="16"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C640" s="16"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C641" s="16"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C642" s="16"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C643" s="16"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C644" s="16"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C645" s="16"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C646" s="16"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C647" s="16"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C648" s="16"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C649" s="16"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C650" s="16"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C651" s="16"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C652" s="16"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C653" s="16"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C654" s="16"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C655" s="16"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C656" s="16"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C657" s="16"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C658" s="16"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C659" s="16"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C660" s="16"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C661" s="16"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C662" s="16"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C663" s="16"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C664" s="16"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C665" s="16"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C666" s="16"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C667" s="16"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C668" s="16"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C669" s="16"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C670" s="16"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C671" s="16"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C672" s="16"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C673" s="16"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C674" s="16"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C675" s="16"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C676" s="16"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C677" s="16"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C678" s="16"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C679" s="16"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C680" s="16"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C681" s="16"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C682" s="16"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C683" s="16"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C684" s="16"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C685" s="16"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C686" s="16"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C687" s="16"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C688" s="16"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C689" s="16"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C690" s="16"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C691" s="16"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C692" s="16"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C693" s="16"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C694" s="16"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C695" s="16"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C696" s="16"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C697" s="16"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C698" s="16"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C699" s="16"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C700" s="16"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C701" s="16"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C702" s="16"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C703" s="16"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C704" s="16"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C705" s="16"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C706" s="16"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C707" s="16"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C708" s="16"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C709" s="16"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C710" s="16"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C711" s="16"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C712" s="16"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C713" s="16"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C714" s="16"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C715" s="16"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C716" s="16"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C717" s="16"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C718" s="16"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C719" s="16"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C720" s="16"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C721" s="16"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C722" s="16"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C723" s="16"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C724" s="16"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C725" s="16"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C726" s="16"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C727" s="16"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C728" s="16"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C729" s="16"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C730" s="16"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C731" s="16"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C732" s="16"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C733" s="16"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C734" s="16"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C735" s="16"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C736" s="16"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C737" s="16"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C738" s="16"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C739" s="16"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C740" s="16"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C741" s="16"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C742" s="16"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C743" s="16"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C744" s="16"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C745" s="16"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C746" s="16"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C747" s="16"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C748" s="16"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C749" s="16"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C750" s="16"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C751" s="16"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C752" s="16"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C753" s="16"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C754" s="16"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C755" s="16"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C756" s="16"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C757" s="16"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C758" s="16"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C759" s="16"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C760" s="16"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C761" s="16"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C762" s="16"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C763" s="16"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C764" s="16"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C765" s="16"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C766" s="16"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C767" s="16"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C768" s="16"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C769" s="16"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C770" s="16"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C771" s="16"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C772" s="16"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C773" s="16"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C774" s="16"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C775" s="16"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C776" s="16"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C777" s="16"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C778" s="16"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C779" s="16"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C780" s="16"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C781" s="16"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C782" s="16"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C783" s="16"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C784" s="16"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C785" s="16"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C786" s="16"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C787" s="16"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C788" s="16"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C789" s="16"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C790" s="16"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C791" s="16"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C792" s="16"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C793" s="16"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C794" s="16"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C795" s="16"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C796" s="16"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C797" s="16"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C798" s="16"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C799" s="16"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C800" s="16"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C801" s="16"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C802" s="16"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C803" s="16"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C804" s="16"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C805" s="16"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C806" s="16"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C807" s="16"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C808" s="16"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C809" s="16"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C810" s="16"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C811" s="16"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C812" s="16"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C813" s="16"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C814" s="16"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C815" s="16"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C816" s="16"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C817" s="16"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C818" s="16"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C819" s="16"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C820" s="16"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C821" s="16"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C822" s="16"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C823" s="16"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C824" s="16"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C825" s="16"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C826" s="16"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C827" s="16"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C828" s="16"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C829" s="16"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C830" s="16"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C831" s="16"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C832" s="16"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C833" s="16"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C834" s="16"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C835" s="16"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C836" s="16"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C837" s="16"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C838" s="16"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C839" s="16"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C840" s="16"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C841" s="16"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C842" s="16"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C843" s="16"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C844" s="16"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C845" s="16"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C846" s="16"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C847" s="16"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C848" s="16"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C849" s="16"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C850" s="16"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C851" s="16"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C852" s="16"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C853" s="16"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C854" s="16"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C855" s="16"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C856" s="16"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C857" s="16"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C858" s="16"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C859" s="16"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C860" s="16"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C861" s="16"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C862" s="16"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C863" s="16"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C864" s="16"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C865" s="16"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C866" s="16"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C867" s="16"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C868" s="16"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C869" s="16"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C870" s="16"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C871" s="16"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C872" s="16"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C873" s="16"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C874" s="16"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C875" s="16"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C876" s="16"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C877" s="16"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C878" s="16"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C879" s="16"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C880" s="16"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C881" s="16"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C882" s="16"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C883" s="16"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C884" s="16"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C885" s="16"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C886" s="16"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C887" s="16"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C888" s="16"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C889" s="16"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C890" s="16"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C891" s="16"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C892" s="16"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C893" s="16"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C894" s="16"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C895" s="16"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C896" s="16"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C897" s="16"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C898" s="16"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C899" s="16"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C900" s="16"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C901" s="16"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C902" s="16"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C903" s="16"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C904" s="16"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C905" s="16"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C906" s="16"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C907" s="16"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C908" s="16"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C909" s="16"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C910" s="16"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C911" s="16"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C912" s="16"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C913" s="16"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C914" s="16"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C915" s="16"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C916" s="16"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C917" s="16"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C918" s="16"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C919" s="16"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C920" s="16"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C921" s="16"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C922" s="16"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C923" s="16"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C924" s="16"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C925" s="16"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C926" s="16"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C927" s="16"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C928" s="16"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C929" s="16"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C930" s="16"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C931" s="16"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C932" s="16"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C933" s="16"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C934" s="16"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C935" s="16"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C936" s="16"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C937" s="16"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C938" s="16"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C939" s="16"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C940" s="16"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C941" s="16"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C942" s="16"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C943" s="16"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C944" s="16"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C945" s="16"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C946" s="16"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C947" s="16"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C948" s="16"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C949" s="16"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C950" s="16"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C951" s="16"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C952" s="16"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C953" s="16"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C954" s="16"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C955" s="16"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C956" s="16"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C957" s="16"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C958" s="16"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C959" s="16"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C960" s="16"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C961" s="16"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C962" s="16"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C963" s="16"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C964" s="16"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C965" s="16"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C966" s="16"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C967" s="16"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C968" s="16"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C969" s="16"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C970" s="16"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C971" s="16"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C972" s="16"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C973" s="16"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C974" s="16"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C975" s="16"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C976" s="16"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C977" s="16"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C978" s="16"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C979" s="16"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C980" s="16"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C981" s="16"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C982" s="16"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C983" s="16"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C984" s="16"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C985" s="16"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C986" s="16"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C987" s="16"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C988" s="16"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C989" s="16"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C990" s="16"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C991" s="16"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C992" s="16"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C993" s="16"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C994" s="16"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C995" s="16"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C996" s="16"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C997" s="16"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C998" s="16"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C999" s="16"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1000" s="16"/>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\2022 Fall\CS 555\cs555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Downloads\CS555\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DAB44-6A8B-4A02-BB99-00753F8FDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D661059-1FC8-4737-89E5-EC696F35846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="312" windowWidth="31008" windowHeight="17112" activeTab="6" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
   <si>
     <t>Initials</t>
   </si>
@@ -798,74 +798,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2755,7 +2687,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3053,15 +2985,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3095,7 +3027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -3129,7 +3061,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3153,16 +3085,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5089F6BA-D448-47B4-AE24-DF66C8EF4E69}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -3179,7 +3111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3196,7 +3128,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3213,7 +3145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3230,7 +3162,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3247,7 +3179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3264,7 +3196,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3281,7 +3213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3298,7 +3230,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3315,7 +3247,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3332,7 +3264,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3349,7 +3281,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3366,7 +3298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3383,7 +3315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3398,7 +3330,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3412,7 +3344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -3426,7 +3358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3440,7 +3372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3454,7 +3386,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3468,7 +3400,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3482,7 +3414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3496,7 +3428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3510,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3524,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3538,7 +3470,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3565,73 +3497,73 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3662,7 +3594,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -3678,7 +3610,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -3703,7 +3635,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -3728,7 +3660,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -3753,7 +3685,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -3778,111 +3710,111 @@
         <v>148.9655172413793</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="F46" s="9"/>
     </row>
@@ -3900,15 +3832,15 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
@@ -3932,7 +3864,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>44830</v>
       </c>
@@ -3947,7 +3879,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>44837</v>
       </c>
@@ -3969,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>44844</v>
       </c>
@@ -3985,7 +3917,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>44851</v>
       </c>
@@ -4001,115 +3933,115 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
@@ -4127,19 +4059,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4168,7 +4100,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4197,7 +4129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4226,7 +4158,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4255,7 +4187,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4284,7 +4216,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4313,7 +4245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -4342,39 +4274,39 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -4388,21 +4320,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180101A1-B95D-45DC-A1F9-B5ECF4BF83E7}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4431,7 +4363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4460,7 +4392,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4489,7 +4421,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4518,7 +4450,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4547,7 +4479,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4576,7 +4508,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4605,32 +4537,32 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
         <v>186</v>
       </c>
@@ -4644,22 +4576,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A728D4E-6196-47CF-B7F5-353323ADCD08}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4688,7 +4620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -4708,7 +4640,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -4728,7 +4660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -4748,7 +4680,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -4768,7 +4700,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -4779,7 +4711,7 @@
         <v>175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4787,8 +4719,17 @@
       <c r="F6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -4811,6 +4752,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4818,20 +4760,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" style="15" customWidth="1"/>
     <col min="3" max="3" width="95" style="15" customWidth="1"/>
-    <col min="4" max="26" width="12.21875" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="16.44140625" style="15"/>
+    <col min="4" max="26" width="12.1796875" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="16.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -5327,2875 +5269,2875 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="16"/>
     </row>
-    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="16"/>
     </row>
-    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="16"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="16"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="16"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="16"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="16"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="16"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="16"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="16"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="16"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="16"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="16"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="16"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="16"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="16"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="16"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="16"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="16"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="16"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="16"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="16"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="16"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="16"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="16"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="16"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="16"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="16"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="16"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="16"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="16"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="16"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="16"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="16"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="16"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="16"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="16"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="16"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="16"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="16"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="16"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="16"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="16"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="16"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="16"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="16"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="16"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="16"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="16"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="16"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="16"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="16"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="16"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="16"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="16"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="16"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="16"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="16"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="16"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="16"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="16"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="16"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="16"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="16"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="16"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="16"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="16"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="16"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="16"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="16"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="16"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="16"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="16"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="16"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="16"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="16"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="16"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="16"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="16"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="16"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="16"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="16"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="16"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="16"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="16"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="16"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="16"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="16"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="16"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="16"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="16"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="16"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="16"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="16"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="16"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="16"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="16"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="16"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="16"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="16"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="16"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="16"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="16"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="16"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="16"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="16"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="16"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="16"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="16"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="16"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="16"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="16"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="16"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="16"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="16"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="16"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="16"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="16"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="16"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="16"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="16"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="16"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="16"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="16"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="16"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="16"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="16"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="16"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="16"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="16"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="16"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="16"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="16"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="16"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="16"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="16"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="16"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="16"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="16"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="16"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="16"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="16"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="16"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="16"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="16"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="16"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="16"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="16"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="16"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="16"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="16"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="16"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="16"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="16"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="16"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="16"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="16"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="16"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="16"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="16"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="16"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="16"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="16"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="16"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="16"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="16"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="16"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="16"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="16"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="16"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="16"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="16"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="16"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="16"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="16"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="16"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="16"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="16"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="16"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="16"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="16"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="16"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="16"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="16"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="16"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="16"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="16"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="16"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="16"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="16"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="16"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="16"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="16"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="16"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="16"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="16"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="16"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="16"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="16"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="16"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="16"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="16"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="16"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="16"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="16"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="16"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="16"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="16"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="16"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="16"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="16"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="16"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="16"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="16"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="16"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="16"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="16"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="16"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="16"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="16"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="16"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="16"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="16"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="16"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="16"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="16"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="16"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="16"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="16"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="16"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="16"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="16"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="16"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="16"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="16"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="16"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="16"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="16"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="16"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="16"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="16"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="16"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="16"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="16"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="16"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="16"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="16"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="16"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="16"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="16"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="16"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="16"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="16"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="16"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="16"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="16"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="16"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="16"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="16"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="16"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="16"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="16"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="16"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="16"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="16"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="16"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="16"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="16"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="16"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="16"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="16"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="16"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="16"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="16"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="16"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="16"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="16"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="16"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="16"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="16"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="16"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="16"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="16"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="16"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="16"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="16"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="16"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="16"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="16"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="16"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="16"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="16"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="16"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="16"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="16"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="16"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="16"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="16"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="16"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="16"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="16"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="16"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="16"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="16"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="16"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="16"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="16"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="16"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="16"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="16"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="16"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="16"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="16"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="16"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="16"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="16"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="16"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="16"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="16"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="16"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="16"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="16"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="16"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="16"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="16"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="16"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="16"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="16"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="16"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="16"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="16"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="16"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="16"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="16"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="16"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="16"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="16"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="16"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="16"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="16"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="16"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="16"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="16"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="16"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="16"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="16"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="16"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="16"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="16"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="16"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="16"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="16"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="16"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="16"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="16"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="16"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="16"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="16"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="16"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="16"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="16"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="16"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="16"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="16"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="16"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="16"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="16"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="16"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="16"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="16"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="16"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="16"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="16"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="16"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="16"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="16"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="16"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="16"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="16"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="16"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="16"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="16"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="16"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="16"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="16"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="16"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="16"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="16"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="16"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="16"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="16"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="16"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="16"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="16"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="16"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="16"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="16"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="16"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="16"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="16"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="16"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="16"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="16"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="16"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="16"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="16"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="16"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="16"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="16"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="16"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="16"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="16"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="16"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="16"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="16"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="16"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="16"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="16"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="16"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="16"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="16"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="16"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="16"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="16"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="16"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="16"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="16"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="16"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="16"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="16"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="16"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="16"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="16"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="16"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="16"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="16"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="16"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="16"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="16"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="16"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="16"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="16"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="16"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="16"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="16"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="16"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="16"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="16"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="16"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="16"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="16"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="16"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="16"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="16"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="16"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="16"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="16"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="16"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="16"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="16"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="16"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="16"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="16"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="16"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="16"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="16"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="16"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="16"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="16"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="16"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="16"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="16"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="16"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="16"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="16"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="16"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="16"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="16"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="16"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="16"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="16"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="16"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="16"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="16"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="16"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="16"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="16"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="16"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="16"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="16"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="16"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="16"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="16"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="16"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="16"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="16"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="16"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="16"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="16"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="16"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="16"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="16"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="16"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="16"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="16"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="16"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="16"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="16"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="16"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="16"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="16"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="16"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="16"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="16"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="16"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="16"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="16"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="16"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="16"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="16"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="16"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="16"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="16"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="16"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="16"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="16"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="16"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="16"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="16"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="16"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="16"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="16"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="16"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="16"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="16"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="16"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="16"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="16"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="16"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="16"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="16"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="16"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="16"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="16"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="16"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="16"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="16"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="16"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="16"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="16"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="16"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="16"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="16"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="16"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="16"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="16"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="16"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="16"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="16"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="16"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="16"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="16"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="16"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="16"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="16"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="16"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="16"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="16"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="16"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="16"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="16"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="16"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="16"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="16"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="16"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="16"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="16"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="16"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="16"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="16"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="16"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="16"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="16"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="16"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="16"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="16"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="16"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="16"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="16"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="16"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="16"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="16"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="16"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="16"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="16"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="16"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="16"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="16"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="16"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="16"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="16"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="16"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="16"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="16"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="16"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="16"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="16"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="16"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="16"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="16"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="16"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="16"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="16"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="16"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="16"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="16"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="16"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="16"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="16"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="16"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="16"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="16"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="16"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="16"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="16"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="16"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="16"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="16"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="16"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="16"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="16"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="16"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="16"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="16"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="16"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="16"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="16"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="16"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="16"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="16"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="16"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="16"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="16"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="16"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="16"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="16"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="16"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="16"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="16"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="16"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="16"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="16"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="16"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="16"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="16"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="16"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="16"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="16"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="16"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="16"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="16"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="16"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="16"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="16"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="16"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="16"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="16"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="16"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="16"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="16"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="16"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="16"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="16"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="16"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="16"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="16"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="16"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="16"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="16"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="16"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="16"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="16"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="16"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="16"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="16"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="16"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="16"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="16"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="16"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="16"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="16"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="16"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="16"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="16"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="16"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="16"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="16"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="16"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="16"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="16"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="16"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="16"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="16"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="16"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="16"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="16"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="16"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="16"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="16"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="16"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="16"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="16"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="16"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="16"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="16"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="16"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="16"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="16"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="16"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="16"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="16"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="16"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="16"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="16"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="16"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="16"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="16"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="16"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="16"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="16"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="16"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="16"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="16"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="16"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="16"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="16"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="16"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="16"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="16"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="16"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="16"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="16"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="16"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="16"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="16"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="16"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="16"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="16"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="16"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="16"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="16"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="16"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="16"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="16"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="16"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="16"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="16"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="16"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="16"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="16"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="16"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="16"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="16"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="16"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="16"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="16"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="16"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="16"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="16"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="16"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="16"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="16"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="16"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="16"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="16"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="16"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="16"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="16"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="16"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="16"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="16"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="16"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="16"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="16"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="16"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="16"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="16"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="16"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="16"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="16"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="16"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="16"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="16"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="16"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="16"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="16"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="16"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="16"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="16"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="16"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="16"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="16"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="16"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="16"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="16"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="16"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="16"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="16"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="16"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="16"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="16"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="16"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="16"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="16"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="16"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="16"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="16"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="16"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="16"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="16"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="16"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="16"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="16"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="16"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="16"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="16"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="16"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="16"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="16"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="16"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="16"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="16"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="16"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="16"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="16"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="16"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="16"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="16"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="16"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="16"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="16"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="16"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="16"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="16"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="16"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="16"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="16"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="16"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="16"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="16"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="16"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="16"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="16"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="16"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="16"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="16"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="16"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="16"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="16"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="16"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="16"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="16"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="16"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="16"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="16"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="16"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="16"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="16"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="16"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="16"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="16"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="16"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="16"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="16"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="16"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="16"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C983" s="16"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C984" s="16"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C985" s="16"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C986" s="16"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C987" s="16"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C988" s="16"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C989" s="16"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C990" s="16"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C991" s="16"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C992" s="16"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C993" s="16"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C994" s="16"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C995" s="16"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C996" s="16"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C997" s="16"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C998" s="16"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C999" s="16"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1000" s="16"/>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Downloads\CS555\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D661059-1FC8-4737-89E5-EC696F35846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59086520-B4EE-431E-B6D1-87C3B8ACE01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="190">
   <si>
     <t>Initials</t>
   </si>
@@ -4576,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A728D4E-6196-47CF-B7F5-353323ADCD08}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4740,13 +4740,22 @@
         <v>175</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7">
         <v>120</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\2022 Fall\CS 555\cs555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DAB44-6A8B-4A02-BB99-00753F8FDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82D34EF-DB35-44DB-8B34-032B58E388E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="312" windowWidth="31008" windowHeight="17112" activeTab="6" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-144" yWindow="312" windowWidth="31008" windowHeight="17112" activeTab="8" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Sprint 1" sheetId="3" r:id="rId5"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId6"/>
     <sheet name="Sprint 3" sheetId="9" r:id="rId7"/>
-    <sheet name="Stories" sheetId="7" r:id="rId8"/>
+    <sheet name="Sprint 4" sheetId="10" r:id="rId8"/>
+    <sheet name="Stories" sheetId="7" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="192">
   <si>
     <t>Initials</t>
   </si>
@@ -616,6 +617,12 @@
   </si>
   <si>
     <t>Birth after marriage of parents</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>On pace to complete user stories</t>
   </si>
 </sst>
 </file>
@@ -745,7 +752,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -788,6 +795,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1182,10 +1190,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$5</c:f>
+              <c:f>Burndown!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44830</c:v>
                 </c:pt>
@@ -1198,25 +1206,31 @@
                 <c:pt idx="3">
                   <c:v>44851</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44865</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$5</c:f>
+              <c:f>Burndown!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -3056,9 +3070,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3153,13 +3167,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5089F6BA-D448-47B4-AE24-DF66C8EF4E69}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3396,7 +3410,9 @@
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -3411,6 +3427,9 @@
       <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -3425,8 +3444,11 @@
       <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3439,8 +3461,11 @@
       <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3453,8 +3478,11 @@
       <c r="D18" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3467,8 +3495,11 @@
       <c r="D19" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3482,7 +3513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3496,7 +3527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3510,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3524,7 +3555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3538,7 +3569,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3897,15 +3928,15 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3937,7 +3968,7 @@
         <v>44830</v>
       </c>
       <c r="B2" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -3952,7 +3983,7 @@
         <v>44837</v>
       </c>
       <c r="B3" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <f>B2-B3</f>
@@ -3974,7 +4005,7 @@
         <v>44844</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:C5" si="0">B3-B4</f>
@@ -3990,7 +4021,7 @@
         <v>44851</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
@@ -4002,7 +4033,18 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8">
+        <v>44865</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4124,18 +4166,18 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4349,6 +4391,9 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
+      <c r="B15" s="26" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -4386,19 +4431,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180101A1-B95D-45DC-A1F9-B5ECF4BF83E7}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4611,7 +4656,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="26" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
@@ -4619,7 +4666,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -4633,6 +4682,16 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4642,20 +4701,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A728D4E-6196-47CF-B7F5-353323ADCD08}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4699,13 +4758,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
         <v>120</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4719,13 +4787,22 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
         <v>120</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4739,13 +4816,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
         <v>120</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4759,13 +4845,22 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>25</v>
       </c>
       <c r="F5">
         <v>120</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4779,13 +4874,22 @@
         <v>175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6">
         <v>120</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4799,7 +4903,7 @@
         <v>175</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4807,27 +4911,270 @@
       <c r="F7">
         <v>120</v>
       </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83123682-8ED9-433A-8356-FCAF37546C7B}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="95" style="15" customWidth="1"/>
-    <col min="4" max="26" width="12.21875" style="15" customWidth="1"/>
+    <col min="4" max="26" width="12.109375" style="15" customWidth="1"/>
     <col min="27" max="16384" width="16.44140625" style="15"/>
   </cols>
   <sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndCh\Documents\Coding Projects\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82D34EF-DB35-44DB-8B34-032B58E388E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C161A-616E-49B6-984B-8EE6B9868FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="312" windowWidth="31008" windowHeight="17112" activeTab="8" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -752,7 +752,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -795,7 +795,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -806,74 +805,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1190,10 +1121,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$6</c:f>
+              <c:f>Burndown!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44830</c:v>
                 </c:pt>
@@ -1209,15 +1140,18 @@
                 <c:pt idx="4">
                   <c:v>44865</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44893</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$6</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -1232,6 +1166,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,7 +2706,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3067,15 +3004,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3092,7 +3029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3109,7 +3046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3126,7 +3063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -3143,7 +3080,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3171,12 +3108,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -3193,7 +3130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3210,7 +3147,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3227,7 +3164,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3244,7 +3181,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3261,7 +3198,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3278,7 +3215,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3295,7 +3232,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3312,7 +3249,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3329,7 +3266,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3346,7 +3283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3363,7 +3300,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3380,7 +3317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3397,7 +3334,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3414,7 +3351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3431,7 +3368,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -3448,7 +3385,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3465,7 +3402,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3482,7 +3419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3499,7 +3436,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3513,7 +3450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3527,7 +3464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3541,7 +3478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3555,7 +3492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3569,7 +3506,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3596,73 +3533,73 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3693,7 +3630,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -3709,7 +3646,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -3734,7 +3671,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -3759,7 +3696,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -3784,7 +3721,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -3809,111 +3746,111 @@
         <v>148.9655172413793</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="F46" s="9"/>
     </row>
@@ -3928,18 +3865,18 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
@@ -3963,7 +3900,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>44830</v>
       </c>
@@ -3978,7 +3915,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>44837</v>
       </c>
@@ -4000,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>44844</v>
       </c>
@@ -4016,7 +3953,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>44851</v>
       </c>
@@ -4032,7 +3969,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>44865</v>
       </c>
@@ -4047,111 +3984,122 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>44893</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
@@ -4169,19 +4117,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4239,7 +4187,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4268,7 +4216,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4297,7 +4245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4326,7 +4274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4355,7 +4303,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -4384,42 +4332,42 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -4434,20 +4382,20 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4476,7 +4424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4505,7 +4453,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4534,7 +4482,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4563,7 +4511,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4592,7 +4540,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4621,7 +4569,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4650,46 +4598,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>182</v>
       </c>
@@ -4707,18 +4655,18 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4747,7 +4695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -4776,7 +4724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -4805,7 +4753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -4834,7 +4782,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -4863,7 +4811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -4892,7 +4840,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -4921,46 +4869,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>182</v>
       </c>
@@ -4976,20 +4924,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83123682-8ED9-433A-8356-FCAF37546C7B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5018,7 +4966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -5041,7 +4989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>103</v>
       </c>
@@ -5064,7 +5012,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
@@ -5087,7 +5035,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>109</v>
       </c>
@@ -5110,7 +5058,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>112</v>
       </c>
@@ -5133,7 +5081,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -5165,20 +5113,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" style="15" customWidth="1"/>
     <col min="3" max="3" width="95" style="15" customWidth="1"/>
-    <col min="4" max="26" width="12.109375" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="16.44140625" style="15"/>
+    <col min="4" max="26" width="12.08984375" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="16.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -5674,2875 +5622,2875 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="16"/>
     </row>
-    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="16"/>
     </row>
-    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="16"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="16"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="16"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="16"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="16"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="16"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="16"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="16"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="16"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="16"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="16"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="16"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="16"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="16"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="16"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="16"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="16"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="16"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="16"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="16"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="16"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="16"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="16"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="16"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="16"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="16"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="16"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="16"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="16"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="16"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="16"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="16"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="16"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="16"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="16"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="16"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="16"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="16"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="16"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="16"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="16"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="16"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="16"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="16"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="16"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="16"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="16"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="16"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="16"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="16"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="16"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="16"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="16"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="16"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="16"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="16"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="16"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="16"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="16"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="16"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="16"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="16"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="16"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="16"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="16"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="16"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="16"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="16"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="16"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="16"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="16"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="16"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="16"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="16"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="16"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="16"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="16"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="16"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="16"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="16"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="16"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="16"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="16"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="16"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="16"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="16"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="16"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="16"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="16"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="16"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="16"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="16"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="16"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="16"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="16"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="16"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="16"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="16"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="16"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="16"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="16"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="16"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="16"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="16"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="16"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="16"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="16"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="16"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="16"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="16"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="16"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="16"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="16"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="16"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="16"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="16"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="16"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="16"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="16"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="16"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="16"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="16"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="16"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="16"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="16"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="16"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="16"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="16"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="16"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="16"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="16"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="16"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="16"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="16"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="16"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="16"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="16"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="16"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="16"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="16"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="16"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="16"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="16"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="16"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="16"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="16"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="16"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="16"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="16"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="16"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="16"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="16"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="16"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="16"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="16"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="16"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="16"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="16"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="16"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="16"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="16"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="16"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="16"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="16"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="16"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="16"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="16"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="16"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="16"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="16"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="16"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="16"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="16"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="16"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="16"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="16"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="16"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="16"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="16"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="16"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="16"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="16"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="16"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="16"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="16"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="16"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="16"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="16"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="16"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="16"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="16"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="16"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="16"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="16"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="16"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="16"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="16"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="16"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="16"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="16"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="16"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="16"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="16"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="16"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="16"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="16"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="16"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="16"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="16"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="16"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="16"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="16"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="16"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="16"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="16"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="16"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="16"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="16"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="16"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="16"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="16"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="16"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="16"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="16"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="16"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="16"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="16"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="16"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="16"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="16"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="16"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="16"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="16"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="16"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="16"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="16"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="16"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="16"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="16"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="16"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="16"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="16"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="16"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="16"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="16"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="16"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="16"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="16"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="16"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="16"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="16"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="16"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="16"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="16"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="16"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="16"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="16"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="16"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="16"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="16"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="16"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="16"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="16"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="16"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="16"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="16"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="16"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="16"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="16"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="16"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="16"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="16"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="16"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="16"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="16"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="16"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="16"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="16"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="16"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="16"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="16"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="16"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="16"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="16"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="16"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="16"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="16"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="16"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="16"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="16"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="16"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="16"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="16"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="16"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="16"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="16"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="16"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="16"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="16"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="16"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="16"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="16"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="16"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="16"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="16"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="16"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="16"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="16"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="16"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="16"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="16"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="16"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="16"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="16"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="16"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="16"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="16"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="16"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="16"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="16"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="16"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="16"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="16"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="16"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="16"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="16"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="16"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="16"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="16"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="16"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="16"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="16"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="16"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="16"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="16"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="16"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="16"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="16"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="16"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="16"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="16"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="16"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="16"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="16"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="16"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="16"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="16"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="16"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="16"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="16"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="16"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="16"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="16"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="16"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="16"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="16"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="16"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="16"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="16"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="16"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="16"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="16"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="16"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="16"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="16"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="16"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="16"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="16"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="16"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="16"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="16"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="16"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="16"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="16"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="16"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="16"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="16"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="16"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="16"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="16"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="16"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="16"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="16"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="16"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="16"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="16"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="16"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="16"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="16"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="16"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="16"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="16"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="16"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="16"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="16"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="16"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="16"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="16"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="16"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="16"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="16"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="16"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="16"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="16"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="16"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="16"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="16"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="16"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="16"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="16"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="16"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="16"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="16"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="16"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="16"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="16"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="16"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="16"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="16"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="16"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="16"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="16"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="16"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="16"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="16"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="16"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="16"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="16"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="16"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="16"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="16"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="16"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="16"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="16"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="16"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="16"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="16"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="16"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="16"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="16"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="16"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="16"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="16"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="16"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="16"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="16"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="16"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="16"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="16"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="16"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="16"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="16"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="16"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="16"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="16"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="16"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="16"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="16"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="16"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="16"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="16"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="16"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="16"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="16"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="16"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="16"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="16"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="16"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="16"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="16"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="16"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="16"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="16"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="16"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="16"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="16"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="16"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="16"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="16"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="16"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="16"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="16"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="16"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="16"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="16"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="16"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="16"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="16"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="16"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="16"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="16"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="16"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="16"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="16"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="16"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="16"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="16"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="16"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="16"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="16"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="16"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="16"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="16"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="16"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="16"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="16"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="16"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="16"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="16"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="16"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="16"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="16"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="16"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="16"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="16"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="16"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="16"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="16"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="16"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="16"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="16"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="16"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="16"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="16"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="16"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="16"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="16"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="16"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="16"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="16"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="16"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="16"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="16"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="16"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="16"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="16"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="16"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="16"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="16"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="16"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="16"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="16"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="16"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="16"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="16"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="16"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="16"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="16"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="16"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="16"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="16"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="16"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="16"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="16"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="16"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="16"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="16"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="16"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="16"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="16"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="16"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="16"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="16"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="16"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="16"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="16"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="16"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="16"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="16"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="16"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="16"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="16"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="16"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="16"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="16"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="16"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="16"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="16"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="16"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="16"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="16"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="16"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="16"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="16"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="16"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="16"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="16"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="16"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="16"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="16"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="16"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="16"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="16"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="16"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="16"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="16"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="16"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="16"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="16"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="16"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="16"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="16"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="16"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="16"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="16"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="16"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="16"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="16"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="16"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="16"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="16"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="16"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="16"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="16"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="16"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="16"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="16"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="16"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="16"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="16"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="16"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="16"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="16"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="16"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="16"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="16"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="16"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="16"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="16"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="16"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="16"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="16"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="16"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="16"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="16"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="16"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="16"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="16"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="16"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="16"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="16"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="16"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="16"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="16"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="16"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="16"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="16"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="16"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="16"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="16"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="16"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="16"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="16"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="16"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="16"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="16"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="16"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="16"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="16"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="16"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="16"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="16"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="16"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="16"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="16"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="16"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="16"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="16"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="16"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="16"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="16"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="16"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="16"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="16"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="16"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="16"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="16"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="16"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="16"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="16"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="16"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="16"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="16"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="16"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="16"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="16"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="16"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="16"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="16"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="16"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="16"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="16"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="16"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="16"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="16"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="16"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="16"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="16"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="16"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="16"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="16"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="16"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="16"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="16"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="16"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="16"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="16"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="16"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="16"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="16"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="16"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="16"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="16"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="16"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="16"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="16"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="16"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="16"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="16"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="16"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="16"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="16"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="16"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="16"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="16"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="16"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="16"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="16"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="16"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="16"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="16"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="16"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="16"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="16"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="16"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="16"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="16"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="16"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="16"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="16"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="16"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="16"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="16"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="16"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="16"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="16"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="16"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="16"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="16"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="16"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="16"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="16"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="16"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="16"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="16"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="16"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="16"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="16"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="16"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="16"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="16"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="16"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="16"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="16"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="16"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="16"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="16"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="16"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="16"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="16"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="16"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="16"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="16"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="16"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="16"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="16"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="16"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="16"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="16"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="16"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="16"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="16"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="16"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="16"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="16"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="16"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="16"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="16"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="16"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="16"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="16"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="16"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="16"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="16"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="16"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="16"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="16"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="16"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="16"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="16"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="16"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="16"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="16"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="16"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="16"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="16"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="16"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="16"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="16"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="16"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="16"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="16"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="16"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="16"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="16"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="16"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="16"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="16"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="16"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="16"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="16"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="16"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="16"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="16"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="16"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="16"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="16"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="16"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="16"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="16"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="16"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="16"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="16"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="16"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="16"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="16"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="16"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="16"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="16"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="16"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="16"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="16"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="16"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="16"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="16"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="16"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="16"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="16"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="16"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="16"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="16"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="16"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="16"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="16"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="16"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="16"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="16"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="16"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="16"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="16"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="16"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="16"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="16"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="16"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="16"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="16"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="16"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="16"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="16"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="16"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="16"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="16"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="16"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="16"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C983" s="16"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C984" s="16"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C985" s="16"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C986" s="16"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C987" s="16"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C988" s="16"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C989" s="16"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C990" s="16"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C991" s="16"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C992" s="16"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C993" s="16"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C994" s="16"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C995" s="16"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C996" s="16"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C997" s="16"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C998" s="16"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C999" s="16"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1000" s="16"/>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndCh\Documents\Coding Projects\cs555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\2022 Fall\CS 555\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C161A-616E-49B6-984B-8EE6B9868FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89CB09-D5EF-4A81-BEFC-F8DFBF454B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="-144" yWindow="312" windowWidth="31008" windowHeight="17112" activeTab="7" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="193">
   <si>
     <t>Initials</t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t>On pace to complete user stories</t>
+  </si>
+  <si>
+    <t>Legitimate dates</t>
   </si>
 </sst>
 </file>
@@ -805,6 +808,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2706,7 +2777,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3004,15 +3075,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3046,7 +3117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -3080,7 +3151,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3108,12 +3179,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3147,7 +3218,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3164,7 +3235,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3181,7 +3252,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3198,7 +3269,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3215,7 +3286,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3232,7 +3303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3249,7 +3320,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3266,7 +3337,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3283,7 +3354,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3300,7 +3371,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3317,7 +3388,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3334,7 +3405,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3351,7 +3422,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3368,7 +3439,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -3385,7 +3456,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3402,7 +3473,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3419,7 +3490,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3436,7 +3507,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3450,7 +3521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3464,7 +3535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3478,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3492,7 +3563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3506,7 +3577,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3533,73 +3604,73 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3701,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -3646,7 +3717,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -3671,7 +3742,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -3696,7 +3767,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -3721,7 +3792,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -3746,111 +3817,111 @@
         <v>148.9655172413793</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="F46" s="9"/>
     </row>
@@ -3868,15 +3939,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
@@ -3900,7 +3971,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44830</v>
       </c>
@@ -3915,7 +3986,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44837</v>
       </c>
@@ -3937,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44844</v>
       </c>
@@ -3953,7 +4024,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44851</v>
       </c>
@@ -3969,7 +4040,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44865</v>
       </c>
@@ -3984,7 +4055,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44893</v>
       </c>
@@ -3999,107 +4070,107 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
@@ -4117,19 +4188,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4158,7 +4229,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4187,7 +4258,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4216,7 +4287,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4245,7 +4316,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4274,7 +4345,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4303,7 +4374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -4332,42 +4403,42 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -4385,17 +4456,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4424,7 +4495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4453,7 +4524,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4482,7 +4553,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4511,7 +4582,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4540,7 +4611,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4569,7 +4640,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4598,46 +4669,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>182</v>
       </c>
@@ -4655,18 +4726,18 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4695,7 +4766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -4724,7 +4795,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -4753,7 +4824,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -4782,7 +4853,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -4811,7 +4882,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -4840,7 +4911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -4869,46 +4940,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>182</v>
       </c>
@@ -4925,19 +4996,19 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4966,7 +5037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4989,7 +5060,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>103</v>
       </c>
@@ -5012,7 +5083,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
@@ -5023,7 +5094,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -5031,22 +5102,28 @@
       <c r="F4">
         <v>120</v>
       </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
       <c r="I4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -5054,11 +5131,17 @@
       <c r="F5">
         <v>120</v>
       </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
       <c r="I5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>112</v>
       </c>
@@ -5081,7 +5164,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -5114,19 +5197,19 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="95" style="15" customWidth="1"/>
-    <col min="4" max="26" width="12.08984375" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="16.453125" style="15"/>
+    <col min="4" max="26" width="12.109375" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="16.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -5363,10 +5446,10 @@
         <v>109</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5473,10 +5556,10 @@
         <v>133</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5616,2881 +5699,2879 @@
         <v>172</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="16"/>
-    </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="16"/>
     </row>
-    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="16"/>
     </row>
-    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="16"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="16"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="16"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="16"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="16"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="16"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="16"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="16"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="16"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="16"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="16"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="16"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="16"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="16"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="16"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="16"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="16"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="16"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="16"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="16"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="16"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="16"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="16"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="16"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="16"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="16"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="16"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="16"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="16"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="16"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="16"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="16"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="16"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="16"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="16"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="16"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="16"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="16"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="16"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="16"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="16"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="16"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="16"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="16"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="16"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="16"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="16"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="16"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="16"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="16"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="16"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="16"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="16"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="16"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="16"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="16"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="16"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="16"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="16"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="16"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="16"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="16"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="16"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="16"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="16"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="16"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="16"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="16"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="16"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="16"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="16"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="16"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="16"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="16"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="16"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="16"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="16"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="16"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="16"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="16"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="16"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="16"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="16"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="16"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="16"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="16"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="16"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="16"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="16"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="16"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C193" s="16"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C194" s="16"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C195" s="16"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C196" s="16"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C197" s="16"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C198" s="16"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C199" s="16"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C200" s="16"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C201" s="16"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C202" s="16"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C203" s="16"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" s="16"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C205" s="16"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C206" s="16"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C207" s="16"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C208" s="16"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C209" s="16"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C212" s="16"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C213" s="16"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C214" s="16"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="16"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="16"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="16"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="16"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="16"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="16"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="16"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="16"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="16"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="16"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C225" s="16"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C226" s="16"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C227" s="16"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C228" s="16"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C229" s="16"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C230" s="16"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C231" s="16"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C232" s="16"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C233" s="16"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C234" s="16"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C236" s="16"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="16"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="16"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C239" s="16"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C240" s="16"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C241" s="16"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C242" s="16"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C243" s="16"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C244" s="16"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C245" s="16"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C246" s="16"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C247" s="16"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C248" s="16"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="16"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="16"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C251" s="16"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C252" s="16"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C253" s="16"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C254" s="16"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C255" s="16"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C256" s="16"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C257" s="16"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C258" s="16"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C259" s="16"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C260" s="16"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="16"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="16"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="16"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="16"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="16"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="16"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="16"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="16"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="16"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="16"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="16"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="16"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C273" s="16"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C274" s="16"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C275" s="16"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C276" s="16"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C277" s="16"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C278" s="16"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C279" s="16"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C280" s="16"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C281" s="16"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C282" s="16"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C283" s="16"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C284" s="16"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C285" s="16"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C286" s="16"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C287" s="16"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C288" s="16"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C289" s="16"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C290" s="16"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C291" s="16"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C292" s="16"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C293" s="16"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C294" s="16"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C295" s="16"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C296" s="16"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C297" s="16"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C298" s="16"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C299" s="16"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C300" s="16"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C301" s="16"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C302" s="16"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C303" s="16"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C304" s="16"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C305" s="16"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C306" s="16"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C307" s="16"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C308" s="16"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C309" s="16"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C310" s="16"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C311" s="16"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C312" s="16"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C313" s="16"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C314" s="16"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C315" s="16"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C316" s="16"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C317" s="16"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C318" s="16"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C319" s="16"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C320" s="16"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C321" s="16"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C322" s="16"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C323" s="16"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C324" s="16"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C325" s="16"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C326" s="16"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="16"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="16"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="16"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="16"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="16"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="16"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="16"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="16"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="16"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="16"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C337" s="16"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C338" s="16"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C339" s="16"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C340" s="16"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="16"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="16"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C343" s="16"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C344" s="16"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C345" s="16"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C346" s="16"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C347" s="16"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C348" s="16"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C349" s="16"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C350" s="16"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C351" s="16"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C352" s="16"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="16"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="16"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="16"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="16"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="16"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="16"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="16"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="16"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="16"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="16"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="16"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="16"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C365" s="16"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C366" s="16"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C367" s="16"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C368" s="16"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C369" s="16"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C370" s="16"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C371" s="16"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C372" s="16"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C373" s="16"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="16"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="16"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="16"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C377" s="16"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C378" s="16"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C379" s="16"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C380" s="16"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C381" s="16"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C382" s="16"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C383" s="16"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C384" s="16"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C385" s="16"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C386" s="16"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="16"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="16"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C389" s="16"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C390" s="16"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="16"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="16"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="16"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C394" s="16"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C395" s="16"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C396" s="16"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C397" s="16"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C398" s="16"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="16"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="16"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="16"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="16"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="16"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="16"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="16"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="16"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="16"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="16"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="16"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="16"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C411" s="16"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C412" s="16"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C413" s="16"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C414" s="16"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C415" s="16"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C416" s="16"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C417" s="16"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C418" s="16"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C419" s="16"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C420" s="16"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C421" s="16"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="16"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C423" s="16"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="16"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="16"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="16"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="16"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C428" s="16"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C429" s="16"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C430" s="16"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C431" s="16"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C432" s="16"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C433" s="16"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C434" s="16"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="16"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="16"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="16"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="16"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="16"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="16"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="16"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="16"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="16"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="16"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="16"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="16"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="16"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="16"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="16"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C450" s="16"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C451" s="16"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C452" s="16"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C453" s="16"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C454" s="16"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C455" s="16"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C456" s="16"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C457" s="16"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C458" s="16"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C459" s="16"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C460" s="16"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C461" s="16"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C462" s="16"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C463" s="16"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C464" s="16"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C465" s="16"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C466" s="16"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C467" s="16"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C468" s="16"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C469" s="16"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C470" s="16"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C471" s="16"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="16"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="16"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="16"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="16"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="16"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="16"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="16"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="16"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="16"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="16"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="16"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C483" s="16"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C484" s="16"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C485" s="16"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C486" s="16"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C487" s="16"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C488" s="16"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C489" s="16"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C490" s="16"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C491" s="16"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C492" s="16"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="16"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="16"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="16"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="16"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="16"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="16"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="16"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="16"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="16"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="16"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="16"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C504" s="16"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C505" s="16"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C506" s="16"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C507" s="16"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C508" s="16"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C509" s="16"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C510" s="16"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C511" s="16"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C512" s="16"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C513" s="16"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="16"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="16"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="16"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="16"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="16"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="16"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="16"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="16"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="16"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="16"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="16"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C525" s="16"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C526" s="16"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C527" s="16"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C528" s="16"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C529" s="16"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C530" s="16"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C531" s="16"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C532" s="16"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C533" s="16"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C534" s="16"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="16"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="16"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="16"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="16"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="16"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="16"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="16"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="16"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="16"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="16"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="16"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C546" s="16"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C547" s="16"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C548" s="16"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C549" s="16"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C550" s="16"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C551" s="16"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C552" s="16"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C553" s="16"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C554" s="16"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C555" s="16"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="16"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="16"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="16"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="16"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="16"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="16"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="16"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="16"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="16"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="16"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="16"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="16"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="16"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="16"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="16"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="16"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="16"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="16"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="16"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="16"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="16"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="16"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="16"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="16"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="16"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="16"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="16"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="16"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="16"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="16"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="16"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="16"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="16"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="16"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="16"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="16"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="16"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C593" s="16"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C594" s="16"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C595" s="16"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C596" s="16"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C597" s="16"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C598" s="16"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C599" s="16"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C600" s="16"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C601" s="16"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C602" s="16"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C603" s="16"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C604" s="16"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C605" s="16"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C606" s="16"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C607" s="16"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C608" s="16"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C609" s="16"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C610" s="16"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C611" s="16"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C612" s="16"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C613" s="16"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C614" s="16"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C615" s="16"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C616" s="16"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C617" s="16"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C618" s="16"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C619" s="16"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C620" s="16"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C621" s="16"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C622" s="16"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C623" s="16"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C624" s="16"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C625" s="16"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C626" s="16"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C627" s="16"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C628" s="16"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C629" s="16"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C630" s="16"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C631" s="16"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C632" s="16"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C633" s="16"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C634" s="16"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C635" s="16"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C636" s="16"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C637" s="16"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C638" s="16"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C639" s="16"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C640" s="16"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C641" s="16"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C642" s="16"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C643" s="16"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C644" s="16"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C645" s="16"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C646" s="16"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C647" s="16"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C648" s="16"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C649" s="16"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C650" s="16"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C651" s="16"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C652" s="16"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C653" s="16"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C654" s="16"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C655" s="16"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C656" s="16"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C657" s="16"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C658" s="16"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C659" s="16"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C660" s="16"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C661" s="16"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C662" s="16"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C663" s="16"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C664" s="16"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C665" s="16"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C666" s="16"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C667" s="16"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C668" s="16"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C669" s="16"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C670" s="16"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C671" s="16"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C672" s="16"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C673" s="16"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C674" s="16"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C675" s="16"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C676" s="16"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C677" s="16"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C678" s="16"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C679" s="16"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C680" s="16"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C681" s="16"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C682" s="16"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C683" s="16"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C684" s="16"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C685" s="16"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C686" s="16"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C687" s="16"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C688" s="16"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C689" s="16"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C690" s="16"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C691" s="16"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C692" s="16"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C693" s="16"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C694" s="16"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C695" s="16"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C696" s="16"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C697" s="16"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C698" s="16"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C699" s="16"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C700" s="16"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C701" s="16"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C702" s="16"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C703" s="16"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C704" s="16"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C705" s="16"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C706" s="16"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C707" s="16"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C708" s="16"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C709" s="16"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C710" s="16"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C711" s="16"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C712" s="16"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C713" s="16"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C714" s="16"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C715" s="16"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C716" s="16"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C717" s="16"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C718" s="16"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C719" s="16"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C720" s="16"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C721" s="16"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C722" s="16"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C723" s="16"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C724" s="16"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C725" s="16"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C726" s="16"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C727" s="16"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C728" s="16"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C729" s="16"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C730" s="16"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C731" s="16"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C732" s="16"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C733" s="16"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C734" s="16"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C735" s="16"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C736" s="16"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C737" s="16"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C738" s="16"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C739" s="16"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C740" s="16"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C741" s="16"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C742" s="16"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C743" s="16"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C744" s="16"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C745" s="16"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C746" s="16"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C747" s="16"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C748" s="16"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C749" s="16"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C750" s="16"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C751" s="16"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C752" s="16"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C753" s="16"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C754" s="16"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C755" s="16"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C756" s="16"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C757" s="16"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C758" s="16"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C759" s="16"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C760" s="16"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C761" s="16"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C762" s="16"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C763" s="16"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C764" s="16"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C765" s="16"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C766" s="16"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C767" s="16"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C768" s="16"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C769" s="16"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C770" s="16"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C771" s="16"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C772" s="16"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C773" s="16"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C774" s="16"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C775" s="16"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C776" s="16"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C777" s="16"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C778" s="16"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C779" s="16"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C780" s="16"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C781" s="16"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C782" s="16"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C783" s="16"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C784" s="16"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C785" s="16"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C786" s="16"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C787" s="16"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C788" s="16"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C789" s="16"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C790" s="16"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C791" s="16"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C792" s="16"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C793" s="16"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C794" s="16"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C795" s="16"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C796" s="16"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C797" s="16"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C798" s="16"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C799" s="16"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C800" s="16"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C801" s="16"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C802" s="16"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C803" s="16"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C804" s="16"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C805" s="16"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C806" s="16"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C807" s="16"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C808" s="16"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C809" s="16"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C810" s="16"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C811" s="16"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C812" s="16"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C813" s="16"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C814" s="16"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C815" s="16"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C816" s="16"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C817" s="16"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C818" s="16"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C819" s="16"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C820" s="16"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C821" s="16"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C822" s="16"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C823" s="16"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C824" s="16"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C825" s="16"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C826" s="16"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C827" s="16"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C828" s="16"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C829" s="16"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C830" s="16"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C831" s="16"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C832" s="16"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C833" s="16"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C834" s="16"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C835" s="16"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C836" s="16"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C837" s="16"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C838" s="16"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C839" s="16"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C840" s="16"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C841" s="16"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C842" s="16"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C843" s="16"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C844" s="16"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C845" s="16"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C846" s="16"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C847" s="16"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C848" s="16"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C849" s="16"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C850" s="16"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C851" s="16"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C852" s="16"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C853" s="16"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C854" s="16"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C855" s="16"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C856" s="16"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C857" s="16"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C858" s="16"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C859" s="16"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C860" s="16"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C861" s="16"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C862" s="16"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C863" s="16"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C864" s="16"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C865" s="16"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C866" s="16"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C867" s="16"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C868" s="16"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C869" s="16"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C870" s="16"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C871" s="16"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C872" s="16"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C873" s="16"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C874" s="16"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C875" s="16"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C876" s="16"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C877" s="16"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C878" s="16"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C879" s="16"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C880" s="16"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C881" s="16"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C882" s="16"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C883" s="16"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C884" s="16"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C885" s="16"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C886" s="16"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C887" s="16"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C888" s="16"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C889" s="16"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C890" s="16"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C891" s="16"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C892" s="16"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C893" s="16"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C894" s="16"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C895" s="16"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C896" s="16"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C897" s="16"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C898" s="16"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C899" s="16"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C900" s="16"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C901" s="16"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C902" s="16"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C903" s="16"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C904" s="16"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C905" s="16"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C906" s="16"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C907" s="16"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C908" s="16"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C909" s="16"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C910" s="16"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C911" s="16"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C912" s="16"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C913" s="16"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C914" s="16"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C915" s="16"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C916" s="16"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C917" s="16"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C918" s="16"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C919" s="16"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C920" s="16"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C921" s="16"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C922" s="16"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C923" s="16"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C924" s="16"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C925" s="16"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C926" s="16"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C927" s="16"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C928" s="16"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C929" s="16"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C930" s="16"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C931" s="16"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C932" s="16"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C933" s="16"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C934" s="16"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C935" s="16"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C936" s="16"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C937" s="16"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C938" s="16"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C939" s="16"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C940" s="16"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C941" s="16"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C942" s="16"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C943" s="16"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C944" s="16"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C945" s="16"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C946" s="16"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C947" s="16"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C948" s="16"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C949" s="16"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C950" s="16"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C951" s="16"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C952" s="16"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C953" s="16"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C954" s="16"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C955" s="16"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C956" s="16"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C957" s="16"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C958" s="16"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C959" s="16"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C960" s="16"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C961" s="16"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C962" s="16"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C963" s="16"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C964" s="16"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C965" s="16"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C966" s="16"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C967" s="16"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C968" s="16"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C969" s="16"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C970" s="16"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C971" s="16"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C972" s="16"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C973" s="16"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C974" s="16"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C975" s="16"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C976" s="16"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C977" s="16"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C978" s="16"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C979" s="16"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C980" s="16"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C981" s="16"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C982" s="16"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C983" s="16"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C984" s="16"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C985" s="16"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C986" s="16"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C987" s="16"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C988" s="16"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C989" s="16"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C990" s="16"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C991" s="16"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C992" s="16"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C993" s="16"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C994" s="16"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C995" s="16"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C996" s="16"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C997" s="16"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C998" s="16"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C999" s="16"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1000" s="16"/>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\2022 Fall\CS 555\cs555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndCh\Documents\Coding Projects\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89CB09-D5EF-4A81-BEFC-F8DFBF454B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B15074-145E-4787-8D44-F437BDB02B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="312" windowWidth="31008" windowHeight="17112" activeTab="7" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="194">
   <si>
     <t>Initials</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>Legitimate dates</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -808,74 +811,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2777,7 +2712,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3075,15 +3010,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3134,7 +3069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -3151,7 +3086,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3179,12 +3114,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -3201,7 +3136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3218,7 +3153,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3235,7 +3170,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3252,7 +3187,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3269,7 +3204,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3286,7 +3221,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3303,7 +3238,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3320,7 +3255,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3337,7 +3272,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3354,7 +3289,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3371,7 +3306,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3388,7 +3323,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3405,7 +3340,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3422,7 +3357,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3439,7 +3374,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -3456,7 +3391,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3473,7 +3408,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3490,7 +3425,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3507,7 +3442,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3521,7 +3456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3535,7 +3470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3549,7 +3484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3563,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3577,7 +3512,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3604,73 +3539,73 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3701,7 +3636,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -3717,7 +3652,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -3742,7 +3677,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -3767,7 +3702,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -3792,7 +3727,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -3817,111 +3752,111 @@
         <v>148.9655172413793</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="F46" s="9"/>
     </row>
@@ -3939,15 +3874,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
@@ -3971,7 +3906,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>44830</v>
       </c>
@@ -3986,7 +3921,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>44837</v>
       </c>
@@ -4008,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>44844</v>
       </c>
@@ -4024,7 +3959,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>44851</v>
       </c>
@@ -4040,7 +3975,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>44865</v>
       </c>
@@ -4055,7 +3990,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>44893</v>
       </c>
@@ -4070,107 +4005,107 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="F33" s="9"/>
     </row>
@@ -4188,19 +4123,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4229,7 +4164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4258,7 +4193,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4287,7 +4222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4316,7 +4251,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4345,7 +4280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4374,7 +4309,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -4403,42 +4338,42 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -4456,17 +4391,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4495,7 +4430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4524,7 +4459,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4553,7 +4488,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4582,7 +4517,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4611,7 +4546,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4640,7 +4575,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4669,46 +4604,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>182</v>
       </c>
@@ -4726,18 +4661,18 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4766,7 +4701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -4795,7 +4730,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -4824,7 +4759,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -4853,7 +4788,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -4882,7 +4817,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -4911,7 +4846,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -4940,46 +4875,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>182</v>
       </c>
@@ -4995,20 +4930,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83123682-8ED9-433A-8356-FCAF37546C7B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5037,18 +4972,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -5056,22 +4991,28 @@
       <c r="F2">
         <v>120</v>
       </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
       <c r="I2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -5079,11 +5020,17 @@
       <c r="F3">
         <v>120</v>
       </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
       <c r="I3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
@@ -5112,7 +5059,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>109</v>
       </c>
@@ -5141,7 +5088,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>112</v>
       </c>
@@ -5164,7 +5111,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -5196,20 +5143,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" style="15" customWidth="1"/>
     <col min="3" max="3" width="95" style="15" customWidth="1"/>
-    <col min="4" max="26" width="12.109375" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="16.44140625" style="15"/>
+    <col min="4" max="26" width="12.08984375" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="16.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -5413,10 +5360,10 @@
         <v>100</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5424,10 +5371,10 @@
         <v>103</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5556,10 +5503,10 @@
         <v>133</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5622,10 +5569,10 @@
         <v>151</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5633,10 +5580,10 @@
         <v>154</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5699,2879 +5646,2875 @@
         <v>172</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="16"/>
     </row>
-    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="16"/>
     </row>
-    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="16"/>
     </row>
-    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="16"/>
     </row>
-    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="16"/>
     </row>
-    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
     </row>
-    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
     </row>
-    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
     </row>
-    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="16"/>
     </row>
-    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="16"/>
     </row>
-    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="16"/>
     </row>
-    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="16"/>
     </row>
-    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="16"/>
     </row>
-    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="16"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="16"/>
     </row>
-    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="16"/>
     </row>
-    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="16"/>
     </row>
-    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="16"/>
     </row>
-    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="16"/>
     </row>
-    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="16"/>
     </row>
-    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="16"/>
     </row>
-    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="16"/>
     </row>
-    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="16"/>
     </row>
-    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="16"/>
     </row>
-    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="16"/>
     </row>
-    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="16"/>
     </row>
-    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="16"/>
     </row>
-    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="16"/>
     </row>
-    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="16"/>
     </row>
-    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="16"/>
     </row>
-    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="16"/>
     </row>
-    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="16"/>
     </row>
-    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="16"/>
     </row>
-    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="16"/>
     </row>
-    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="16"/>
     </row>
-    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="16"/>
     </row>
-    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="16"/>
     </row>
-    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="16"/>
     </row>
-    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="16"/>
     </row>
-    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="16"/>
     </row>
-    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="16"/>
     </row>
-    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="16"/>
     </row>
-    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="16"/>
     </row>
-    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="16"/>
     </row>
-    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="16"/>
     </row>
-    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="16"/>
     </row>
-    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="16"/>
     </row>
-    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="16"/>
     </row>
-    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="16"/>
     </row>
-    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="16"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="16"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="16"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="16"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="16"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="16"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="16"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="16"/>
     </row>
-    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="16"/>
     </row>
-    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="16"/>
     </row>
-    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="16"/>
     </row>
-    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="16"/>
     </row>
-    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="16"/>
     </row>
-    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="16"/>
     </row>
-    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="16"/>
     </row>
-    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="16"/>
     </row>
-    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="16"/>
     </row>
-    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="16"/>
     </row>
-    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="16"/>
     </row>
-    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="16"/>
     </row>
-    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="16"/>
     </row>
-    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="16"/>
     </row>
-    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="16"/>
     </row>
-    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="16"/>
     </row>
-    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="16"/>
     </row>
-    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="16"/>
     </row>
-    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="16"/>
     </row>
-    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="16"/>
     </row>
-    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="16"/>
     </row>
-    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="16"/>
     </row>
-    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="16"/>
     </row>
-    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="16"/>
     </row>
-    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="16"/>
     </row>
-    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="16"/>
     </row>
-    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="16"/>
     </row>
-    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="16"/>
     </row>
-    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="16"/>
     </row>
-    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="16"/>
     </row>
-    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="16"/>
     </row>
-    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="16"/>
     </row>
-    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="16"/>
     </row>
-    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="16"/>
     </row>
-    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="16"/>
     </row>
-    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="16"/>
     </row>
-    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="16"/>
     </row>
-    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="16"/>
     </row>
-    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="16"/>
     </row>
-    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="16"/>
     </row>
-    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="16"/>
     </row>
-    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="16"/>
     </row>
-    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="16"/>
     </row>
-    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="16"/>
     </row>
-    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="16"/>
     </row>
-    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="16"/>
     </row>
-    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="16"/>
     </row>
-    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="16"/>
     </row>
-    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="16"/>
     </row>
-    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="16"/>
     </row>
-    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="16"/>
     </row>
-    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="16"/>
     </row>
-    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="16"/>
     </row>
-    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="16"/>
     </row>
-    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="16"/>
     </row>
-    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="16"/>
     </row>
-    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="16"/>
     </row>
-    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="16"/>
     </row>
-    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="16"/>
     </row>
-    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="16"/>
     </row>
-    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="16"/>
     </row>
-    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="16"/>
     </row>
-    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="16"/>
     </row>
-    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="16"/>
     </row>
-    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="16"/>
     </row>
-    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="16"/>
     </row>
-    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="16"/>
     </row>
-    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="16"/>
     </row>
-    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="16"/>
     </row>
-    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="16"/>
     </row>
-    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="16"/>
     </row>
-    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="16"/>
     </row>
-    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="16"/>
     </row>
-    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="16"/>
     </row>
-    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="16"/>
     </row>
-    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="16"/>
     </row>
-    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="16"/>
     </row>
-    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="16"/>
     </row>
-    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="16"/>
     </row>
-    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="16"/>
     </row>
-    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="16"/>
     </row>
-    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="16"/>
     </row>
-    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="16"/>
     </row>
-    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="16"/>
     </row>
-    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="16"/>
     </row>
-    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="16"/>
     </row>
-    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="16"/>
     </row>
-    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="16"/>
     </row>
-    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="16"/>
     </row>
-    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="16"/>
     </row>
-    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="16"/>
     </row>
-    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="16"/>
     </row>
-    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="16"/>
     </row>
-    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="16"/>
     </row>
-    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="16"/>
     </row>
-    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="16"/>
     </row>
-    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="16"/>
     </row>
-    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="16"/>
     </row>
-    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="16"/>
     </row>
-    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="16"/>
     </row>
-    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="16"/>
     </row>
-    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="16"/>
     </row>
-    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="16"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="16"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="16"/>
     </row>
-    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="16"/>
     </row>
-    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="16"/>
     </row>
-    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="16"/>
     </row>
-    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="16"/>
     </row>
-    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="16"/>
     </row>
-    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="16"/>
     </row>
-    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="16"/>
     </row>
-    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="16"/>
     </row>
-    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="16"/>
     </row>
-    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="16"/>
     </row>
-    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="16"/>
     </row>
-    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="16"/>
     </row>
-    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="16"/>
     </row>
-    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="16"/>
     </row>
-    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="16"/>
     </row>
-    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="16"/>
     </row>
-    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="16"/>
     </row>
-    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="16"/>
     </row>
-    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="16"/>
     </row>
-    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="16"/>
     </row>
-    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="16"/>
     </row>
-    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="16"/>
     </row>
-    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="16"/>
     </row>
-    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="16"/>
     </row>
-    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="16"/>
     </row>
-    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="16"/>
     </row>
-    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="16"/>
     </row>
-    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="16"/>
     </row>
-    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="16"/>
     </row>
-    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="16"/>
     </row>
-    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="16"/>
     </row>
-    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="16"/>
     </row>
-    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="16"/>
     </row>
-    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="16"/>
     </row>
-    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="16"/>
     </row>
-    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="16"/>
     </row>
-    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="16"/>
     </row>
-    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="16"/>
     </row>
-    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="16"/>
     </row>
-    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="16"/>
     </row>
-    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="16"/>
     </row>
-    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="16"/>
     </row>
-    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="16"/>
     </row>
-    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="16"/>
     </row>
-    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="16"/>
     </row>
-    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="16"/>
     </row>
-    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="16"/>
     </row>
-    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="16"/>
     </row>
-    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="16"/>
     </row>
-    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="16"/>
     </row>
-    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="16"/>
     </row>
-    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="16"/>
     </row>
-    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="16"/>
     </row>
-    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="16"/>
     </row>
-    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="16"/>
     </row>
-    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="16"/>
     </row>
-    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="16"/>
     </row>
-    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="16"/>
     </row>
-    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="16"/>
     </row>
-    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="16"/>
     </row>
-    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="16"/>
     </row>
-    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="16"/>
     </row>
-    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="16"/>
     </row>
-    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="16"/>
     </row>
-    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="16"/>
     </row>
-    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="16"/>
     </row>
-    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="16"/>
     </row>
-    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="16"/>
     </row>
-    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="16"/>
     </row>
-    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="16"/>
     </row>
-    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="16"/>
     </row>
-    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="16"/>
     </row>
-    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="16"/>
     </row>
-    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="16"/>
     </row>
-    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="16"/>
     </row>
-    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="16"/>
     </row>
-    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="16"/>
     </row>
-    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="16"/>
     </row>
-    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="16"/>
     </row>
-    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="16"/>
     </row>
-    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="16"/>
     </row>
-    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="16"/>
     </row>
-    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="16"/>
     </row>
-    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="16"/>
     </row>
-    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="16"/>
     </row>
-    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="16"/>
     </row>
-    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="16"/>
     </row>
-    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="16"/>
     </row>
-    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="16"/>
     </row>
-    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="16"/>
     </row>
-    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="16"/>
     </row>
-    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="16"/>
     </row>
-    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="16"/>
     </row>
-    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="16"/>
     </row>
-    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="16"/>
     </row>
-    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="16"/>
     </row>
-    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="16"/>
     </row>
-    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="16"/>
     </row>
-    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="16"/>
     </row>
-    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="16"/>
     </row>
-    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="16"/>
     </row>
-    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="16"/>
     </row>
-    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="16"/>
     </row>
-    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="16"/>
     </row>
-    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="16"/>
     </row>
-    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="16"/>
     </row>
-    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="16"/>
     </row>
-    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="16"/>
     </row>
-    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="16"/>
     </row>
-    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="16"/>
     </row>
-    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="16"/>
     </row>
-    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="16"/>
     </row>
-    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="16"/>
     </row>
-    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="16"/>
     </row>
-    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="16"/>
     </row>
-    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="16"/>
     </row>
-    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="16"/>
     </row>
-    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="16"/>
     </row>
-    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="16"/>
     </row>
-    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="16"/>
     </row>
-    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="16"/>
     </row>
-    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="16"/>
     </row>
-    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="16"/>
     </row>
-    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="16"/>
     </row>
-    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="16"/>
     </row>
-    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="16"/>
     </row>
-    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="16"/>
     </row>
-    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="16"/>
     </row>
-    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="16"/>
     </row>
-    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="16"/>
     </row>
-    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="16"/>
     </row>
-    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="16"/>
     </row>
-    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="16"/>
     </row>
-    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="16"/>
     </row>
-    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="16"/>
     </row>
-    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="16"/>
     </row>
-    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="16"/>
     </row>
-    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="16"/>
     </row>
-    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="16"/>
     </row>
-    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="16"/>
     </row>
-    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="16"/>
     </row>
-    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="16"/>
     </row>
-    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="16"/>
     </row>
-    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="16"/>
     </row>
-    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="16"/>
     </row>
-    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="16"/>
     </row>
-    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="16"/>
     </row>
-    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="16"/>
     </row>
-    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="16"/>
     </row>
-    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="16"/>
     </row>
-    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="16"/>
     </row>
-    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="16"/>
     </row>
-    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="16"/>
     </row>
-    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="16"/>
     </row>
-    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="16"/>
     </row>
-    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="16"/>
     </row>
-    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="16"/>
     </row>
-    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="16"/>
     </row>
-    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="16"/>
     </row>
-    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="16"/>
     </row>
-    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="16"/>
     </row>
-    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="16"/>
     </row>
-    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="16"/>
     </row>
-    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="16"/>
     </row>
-    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="16"/>
     </row>
-    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="16"/>
     </row>
-    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="16"/>
     </row>
-    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="16"/>
     </row>
-    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="16"/>
     </row>
-    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="16"/>
     </row>
-    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="16"/>
     </row>
-    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="16"/>
     </row>
-    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="16"/>
     </row>
-    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="16"/>
     </row>
-    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="16"/>
     </row>
-    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="16"/>
     </row>
-    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="16"/>
     </row>
-    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="16"/>
     </row>
-    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="16"/>
     </row>
-    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="16"/>
     </row>
-    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="16"/>
     </row>
-    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="16"/>
     </row>
-    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="16"/>
     </row>
-    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="16"/>
     </row>
-    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="16"/>
     </row>
-    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="16"/>
     </row>
-    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="16"/>
     </row>
-    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="16"/>
     </row>
-    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="16"/>
     </row>
-    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="16"/>
     </row>
-    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="16"/>
     </row>
-    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="16"/>
     </row>
-    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="16"/>
     </row>
-    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="16"/>
     </row>
-    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="16"/>
     </row>
-    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="16"/>
     </row>
-    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="16"/>
     </row>
-    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="16"/>
     </row>
-    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="16"/>
     </row>
-    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="16"/>
     </row>
-    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="16"/>
     </row>
-    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="16"/>
     </row>
-    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="16"/>
     </row>
-    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="16"/>
     </row>
-    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="16"/>
     </row>
-    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="16"/>
     </row>
-    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="16"/>
     </row>
-    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="16"/>
     </row>
-    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="16"/>
     </row>
-    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="16"/>
     </row>
-    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="16"/>
     </row>
-    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="16"/>
     </row>
-    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="16"/>
     </row>
-    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="16"/>
     </row>
-    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="16"/>
     </row>
-    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="16"/>
     </row>
-    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="16"/>
     </row>
-    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="16"/>
     </row>
-    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="16"/>
     </row>
-    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="16"/>
     </row>
-    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="16"/>
     </row>
-    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="16"/>
     </row>
-    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="16"/>
     </row>
-    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="16"/>
     </row>
-    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="16"/>
     </row>
-    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="16"/>
     </row>
-    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="16"/>
     </row>
-    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="16"/>
     </row>
-    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="16"/>
     </row>
-    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="16"/>
     </row>
-    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="16"/>
     </row>
-    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="16"/>
     </row>
-    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="16"/>
     </row>
-    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="16"/>
     </row>
-    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="16"/>
     </row>
-    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="16"/>
     </row>
-    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="16"/>
     </row>
-    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="16"/>
     </row>
-    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="16"/>
     </row>
-    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="16"/>
     </row>
-    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="16"/>
     </row>
-    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="16"/>
     </row>
-    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="16"/>
     </row>
-    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="16"/>
     </row>
-    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="16"/>
     </row>
-    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="16"/>
     </row>
-    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="16"/>
     </row>
-    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="16"/>
     </row>
-    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="16"/>
     </row>
-    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="16"/>
     </row>
-    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="16"/>
     </row>
-    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="16"/>
     </row>
-    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="16"/>
     </row>
-    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="16"/>
     </row>
-    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="16"/>
     </row>
-    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="16"/>
     </row>
-    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="16"/>
     </row>
-    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="16"/>
     </row>
-    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="16"/>
     </row>
-    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="16"/>
     </row>
-    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="16"/>
     </row>
-    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="16"/>
     </row>
-    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="16"/>
     </row>
-    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="16"/>
     </row>
-    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="16"/>
     </row>
-    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="16"/>
     </row>
-    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="16"/>
     </row>
-    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="16"/>
     </row>
-    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="16"/>
     </row>
-    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="16"/>
     </row>
-    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="16"/>
     </row>
-    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="16"/>
     </row>
-    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="16"/>
     </row>
-    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="16"/>
     </row>
-    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="16"/>
     </row>
-    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="16"/>
     </row>
-    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="16"/>
     </row>
-    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="16"/>
     </row>
-    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="16"/>
     </row>
-    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="16"/>
     </row>
-    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="16"/>
     </row>
-    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="16"/>
     </row>
-    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="16"/>
     </row>
-    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="16"/>
     </row>
-    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="16"/>
     </row>
-    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="16"/>
     </row>
-    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="16"/>
     </row>
-    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="16"/>
     </row>
-    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="16"/>
     </row>
-    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="16"/>
     </row>
-    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="16"/>
     </row>
-    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="16"/>
     </row>
-    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="16"/>
     </row>
-    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="16"/>
     </row>
-    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="16"/>
     </row>
-    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="16"/>
     </row>
-    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="16"/>
     </row>
-    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="16"/>
     </row>
-    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="16"/>
     </row>
-    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="16"/>
     </row>
-    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="16"/>
     </row>
-    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="16"/>
     </row>
-    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="16"/>
     </row>
-    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="16"/>
     </row>
-    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="16"/>
     </row>
-    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="16"/>
     </row>
-    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="16"/>
     </row>
-    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="16"/>
     </row>
-    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="16"/>
     </row>
-    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="16"/>
     </row>
-    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="16"/>
     </row>
-    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="16"/>
     </row>
-    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="16"/>
     </row>
-    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="16"/>
     </row>
-    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="16"/>
     </row>
-    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="16"/>
     </row>
-    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="16"/>
     </row>
-    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="16"/>
     </row>
-    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="16"/>
     </row>
-    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="16"/>
     </row>
-    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="16"/>
     </row>
-    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="16"/>
     </row>
-    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="16"/>
     </row>
-    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="16"/>
     </row>
-    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="16"/>
     </row>
-    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="16"/>
     </row>
-    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="16"/>
     </row>
-    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="16"/>
     </row>
-    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="16"/>
     </row>
-    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="16"/>
     </row>
-    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="16"/>
     </row>
-    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="16"/>
     </row>
-    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="16"/>
     </row>
-    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="16"/>
     </row>
-    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="16"/>
     </row>
-    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="16"/>
     </row>
-    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="16"/>
     </row>
-    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="16"/>
     </row>
-    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="16"/>
     </row>
-    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="16"/>
     </row>
-    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="16"/>
     </row>
-    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="16"/>
     </row>
-    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="16"/>
     </row>
-    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="16"/>
     </row>
-    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="16"/>
     </row>
-    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="16"/>
     </row>
-    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="16"/>
     </row>
-    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="16"/>
     </row>
-    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="16"/>
     </row>
-    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="16"/>
     </row>
-    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="16"/>
     </row>
-    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="16"/>
     </row>
-    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="16"/>
     </row>
-    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="16"/>
     </row>
-    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="16"/>
     </row>
-    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="16"/>
     </row>
-    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="16"/>
     </row>
-    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="16"/>
     </row>
-    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="16"/>
     </row>
-    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="16"/>
     </row>
-    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="16"/>
     </row>
-    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="16"/>
     </row>
-    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="16"/>
     </row>
-    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="16"/>
     </row>
-    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="16"/>
     </row>
-    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="16"/>
     </row>
-    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="16"/>
     </row>
-    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="16"/>
     </row>
-    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="16"/>
     </row>
-    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="16"/>
     </row>
-    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="16"/>
     </row>
-    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="16"/>
     </row>
-    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="16"/>
     </row>
-    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="16"/>
     </row>
-    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="16"/>
     </row>
-    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="16"/>
     </row>
-    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="16"/>
     </row>
-    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="16"/>
     </row>
-    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="16"/>
     </row>
-    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="16"/>
     </row>
-    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="16"/>
     </row>
-    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="16"/>
     </row>
-    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="16"/>
     </row>
-    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="16"/>
     </row>
-    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="16"/>
     </row>
-    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="16"/>
     </row>
-    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="16"/>
     </row>
-    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="16"/>
     </row>
-    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="16"/>
     </row>
-    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="16"/>
     </row>
-    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="16"/>
     </row>
-    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="16"/>
     </row>
-    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="16"/>
     </row>
-    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="16"/>
     </row>
-    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="16"/>
     </row>
-    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="16"/>
     </row>
-    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="16"/>
     </row>
-    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="16"/>
     </row>
-    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="16"/>
     </row>
-    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="16"/>
     </row>
-    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="16"/>
     </row>
-    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="16"/>
     </row>
-    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="16"/>
     </row>
-    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="16"/>
     </row>
-    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="16"/>
     </row>
-    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="16"/>
     </row>
-    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="16"/>
     </row>
-    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="16"/>
     </row>
-    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="16"/>
     </row>
-    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="16"/>
     </row>
-    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="16"/>
     </row>
-    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="16"/>
     </row>
-    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="16"/>
     </row>
-    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="16"/>
     </row>
-    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="16"/>
     </row>
-    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="16"/>
     </row>
-    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="16"/>
     </row>
-    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="16"/>
     </row>
-    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="16"/>
     </row>
-    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="16"/>
     </row>
-    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="16"/>
     </row>
-    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="16"/>
     </row>
-    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="16"/>
     </row>
-    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="16"/>
     </row>
-    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="16"/>
     </row>
-    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="16"/>
     </row>
-    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="16"/>
     </row>
-    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="16"/>
     </row>
-    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="16"/>
     </row>
-    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="16"/>
     </row>
-    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="16"/>
     </row>
-    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="16"/>
     </row>
-    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="16"/>
     </row>
-    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="16"/>
     </row>
-    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="16"/>
     </row>
-    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="16"/>
     </row>
-    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="16"/>
     </row>
-    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="16"/>
     </row>
-    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="16"/>
     </row>
-    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="16"/>
     </row>
-    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="16"/>
     </row>
-    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="16"/>
     </row>
-    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="16"/>
     </row>
-    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="16"/>
     </row>
-    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="16"/>
     </row>
-    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="16"/>
     </row>
-    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="16"/>
     </row>
-    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="16"/>
     </row>
-    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="16"/>
     </row>
-    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="16"/>
     </row>
-    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="16"/>
     </row>
-    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="16"/>
     </row>
-    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="16"/>
     </row>
-    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="16"/>
     </row>
-    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="16"/>
     </row>
-    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="16"/>
     </row>
-    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="16"/>
     </row>
-    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="16"/>
     </row>
-    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="16"/>
     </row>
-    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="16"/>
     </row>
-    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="16"/>
     </row>
-    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="16"/>
     </row>
-    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="16"/>
     </row>
-    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="16"/>
     </row>
-    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="16"/>
     </row>
-    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="16"/>
     </row>
-    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="16"/>
     </row>
-    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="16"/>
     </row>
-    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="16"/>
     </row>
-    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="16"/>
     </row>
-    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="16"/>
     </row>
-    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="16"/>
     </row>
-    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="16"/>
     </row>
-    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="16"/>
     </row>
-    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="16"/>
     </row>
-    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="16"/>
     </row>
-    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="16"/>
     </row>
-    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="16"/>
     </row>
-    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="16"/>
     </row>
-    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="16"/>
     </row>
-    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="16"/>
     </row>
-    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="16"/>
     </row>
-    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="16"/>
     </row>
-    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="16"/>
     </row>
-    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="16"/>
     </row>
-    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="16"/>
     </row>
-    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="16"/>
     </row>
-    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="16"/>
     </row>
-    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="16"/>
     </row>
-    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="16"/>
     </row>
-    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="16"/>
     </row>
-    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="16"/>
     </row>
-    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="16"/>
     </row>
-    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="16"/>
     </row>
-    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="16"/>
     </row>
-    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="16"/>
     </row>
-    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="16"/>
     </row>
-    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="16"/>
     </row>
-    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="16"/>
     </row>
-    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="16"/>
     </row>
-    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="16"/>
     </row>
-    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="16"/>
     </row>
-    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="16"/>
     </row>
-    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="16"/>
     </row>
-    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="16"/>
     </row>
-    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="16"/>
     </row>
-    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="16"/>
     </row>
-    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="16"/>
     </row>
-    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="16"/>
     </row>
-    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="16"/>
     </row>
-    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="16"/>
     </row>
-    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="16"/>
     </row>
-    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="16"/>
     </row>
-    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="16"/>
     </row>
-    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="16"/>
     </row>
-    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="16"/>
     </row>
-    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="16"/>
     </row>
-    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="16"/>
     </row>
-    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="16"/>
     </row>
-    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="16"/>
     </row>
-    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="16"/>
     </row>
-    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="16"/>
     </row>
-    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="16"/>
     </row>
-    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="16"/>
     </row>
-    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="16"/>
     </row>
-    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="16"/>
     </row>
-    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="16"/>
     </row>
-    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="16"/>
     </row>
-    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="16"/>
     </row>
-    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="16"/>
     </row>
-    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="16"/>
     </row>
-    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="16"/>
     </row>
-    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="16"/>
     </row>
-    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="16"/>
     </row>
-    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="16"/>
     </row>
-    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="16"/>
     </row>
-    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="16"/>
     </row>
-    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="16"/>
     </row>
-    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="16"/>
     </row>
-    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="16"/>
     </row>
-    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="16"/>
     </row>
-    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="16"/>
     </row>
-    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="16"/>
     </row>
-    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="16"/>
     </row>
-    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="16"/>
     </row>
-    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="16"/>
     </row>
-    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="16"/>
     </row>
-    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="16"/>
     </row>
-    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="16"/>
     </row>
-    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="16"/>
     </row>
-    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="16"/>
     </row>
-    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="16"/>
     </row>
-    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="16"/>
     </row>
-    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="16"/>
     </row>
-    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="16"/>
     </row>
-    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="16"/>
     </row>
-    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="16"/>
     </row>
-    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="16"/>
     </row>
-    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="16"/>
     </row>
-    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="16"/>
     </row>
-    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="16"/>
     </row>
-    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="16"/>
     </row>
-    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="16"/>
     </row>
-    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="16"/>
     </row>
-    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="16"/>
     </row>
-    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="16"/>
     </row>
-    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="16"/>
     </row>
-    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="16"/>
     </row>
-    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="16"/>
     </row>
-    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="16"/>
     </row>
-    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="16"/>
     </row>
-    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="16"/>
     </row>
-    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="16"/>
     </row>
-    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="16"/>
     </row>
-    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="16"/>
     </row>
-    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="16"/>
     </row>
-    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="16"/>
     </row>
-    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="16"/>
     </row>
-    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="16"/>
     </row>
-    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="16"/>
     </row>
-    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="16"/>
     </row>
-    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="16"/>
     </row>
-    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="16"/>
     </row>
-    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="16"/>
     </row>
-    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="16"/>
     </row>
-    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="16"/>
     </row>
-    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="16"/>
     </row>
-    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="16"/>
     </row>
-    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="16"/>
     </row>
-    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="16"/>
     </row>
-    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="16"/>
     </row>
-    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="16"/>
     </row>
-    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="16"/>
     </row>
-    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="16"/>
     </row>
-    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="16"/>
     </row>
-    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="16"/>
     </row>
-    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="16"/>
     </row>
-    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="16"/>
     </row>
-    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="16"/>
     </row>
-    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="16"/>
     </row>
-    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="16"/>
     </row>
-    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="16"/>
     </row>
-    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="16"/>
     </row>
-    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="16"/>
     </row>
-    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="16"/>
     </row>
-    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="16"/>
     </row>
-    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="16"/>
     </row>
-    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="16"/>
     </row>
-    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="16"/>
     </row>
-    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="16"/>
     </row>
-    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="16"/>
     </row>
-    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="16"/>
     </row>
-    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="16"/>
     </row>
-    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="16"/>
     </row>
-    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="16"/>
     </row>
-    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="16"/>
     </row>
-    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="16"/>
     </row>
-    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="16"/>
     </row>
-    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="16"/>
     </row>
-    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="16"/>
     </row>
-    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="16"/>
     </row>
-    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="16"/>
     </row>
-    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="16"/>
     </row>
-    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="16"/>
     </row>
-    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="16"/>
     </row>
-    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="16"/>
     </row>
-    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="16"/>
     </row>
-    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="16"/>
     </row>
-    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="16"/>
     </row>
-    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="16"/>
     </row>
-    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="16"/>
     </row>
-    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="16"/>
     </row>
-    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="16"/>
     </row>
-    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="16"/>
     </row>
-    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="16"/>
     </row>
-    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="16"/>
     </row>
-    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="16"/>
     </row>
-    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="16"/>
     </row>
-    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="16"/>
     </row>
-    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="16"/>
     </row>
-    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="16"/>
     </row>
-    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="16"/>
     </row>
-    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="16"/>
     </row>
-    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="16"/>
     </row>
-    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="16"/>
     </row>
-    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="16"/>
     </row>
-    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="16"/>
     </row>
-    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="16"/>
     </row>
-    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="16"/>
     </row>
-    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="16"/>
     </row>
-    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="16"/>
     </row>
-    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="16"/>
     </row>
-    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="16"/>
     </row>
-    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="16"/>
     </row>
-    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="16"/>
     </row>
-    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="16"/>
     </row>
-    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="16"/>
     </row>
-    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="16"/>
     </row>
-    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="16"/>
     </row>
-    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="16"/>
     </row>
-    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="16"/>
     </row>
-    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="16"/>
     </row>
-    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="16"/>
     </row>
-    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="16"/>
     </row>
-    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="16"/>
     </row>
-    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="16"/>
     </row>
-    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="16"/>
     </row>
-    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="16"/>
     </row>
-    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="16"/>
     </row>
-    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="16"/>
     </row>
-    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="16"/>
     </row>
-    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="16"/>
     </row>
-    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="16"/>
     </row>
-    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="16"/>
     </row>
-    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="16"/>
     </row>
-    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="16"/>
     </row>
-    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="16"/>
     </row>
-    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="16"/>
     </row>
-    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="16"/>
     </row>
-    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="16"/>
     </row>
-    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="16"/>
     </row>
-    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="16"/>
     </row>
-    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="16"/>
     </row>
-    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="16"/>
     </row>
-    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="16"/>
     </row>
-    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="16"/>
     </row>
-    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="16"/>
     </row>
-    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="16"/>
     </row>
-    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="16"/>
     </row>
-    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="16"/>
     </row>
-    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="16"/>
     </row>
-    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="16"/>
     </row>
-    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="16"/>
     </row>
-    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="16"/>
     </row>
-    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="16"/>
     </row>
-    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="16"/>
     </row>
-    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="16"/>
     </row>
-    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="16"/>
     </row>
-    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="16"/>
     </row>
-    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="16"/>
     </row>
-    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="16"/>
     </row>
-    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="16"/>
     </row>
-    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="16"/>
     </row>
-    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="16"/>
     </row>
-    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="16"/>
     </row>
-    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="16"/>
     </row>
-    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="16"/>
     </row>
-    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="16"/>
     </row>
-    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="16"/>
     </row>
-    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="16"/>
     </row>
-    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="16"/>
     </row>
-    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="16"/>
     </row>
-    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="16"/>
     </row>
-    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="16"/>
     </row>
-    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="16"/>
     </row>
-    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="16"/>
     </row>
-    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="16"/>
     </row>
-    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="16"/>
     </row>
-    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="16"/>
     </row>
-    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C983" s="16"/>
     </row>
-    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C984" s="16"/>
     </row>
-    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C985" s="16"/>
     </row>
-    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C986" s="16"/>
     </row>
-    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C987" s="16"/>
     </row>
-    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C988" s="16"/>
     </row>
-    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C989" s="16"/>
     </row>
-    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C990" s="16"/>
     </row>
-    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C991" s="16"/>
     </row>
-    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C992" s="16"/>
     </row>
-    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C993" s="16"/>
     </row>
-    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C994" s="16"/>
     </row>
-    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C995" s="16"/>
     </row>
-    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C996" s="16"/>
     </row>
-    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C997" s="16"/>
     </row>
-    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C998" s="16"/>
     </row>
-    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C999" s="16"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1000" s="16"/>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndCh\Documents\Coding Projects\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B15074-145E-4787-8D44-F437BDB02B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9684B2-A571-42EB-8007-418772809B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{E948F438-0122-49D3-838A-1AA98BDF6037}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="193">
   <si>
     <t>Initials</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>pending</t>
   </si>
   <si>
     <t>Keep Doing:</t>
@@ -3071,27 +3068,27 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>176</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>178</v>
-      </c>
-      <c r="E4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3150,7 +3147,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3167,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3184,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3201,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3215,10 +3212,10 @@
         <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3232,10 +3229,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3252,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3269,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3286,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3303,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3317,10 +3314,10 @@
         <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -3334,10 +3331,10 @@
         <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3354,7 +3351,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3371,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3388,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -3405,7 +3402,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3413,16 +3410,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -3430,16 +3427,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -3447,10 +3444,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>9</v>
@@ -3461,10 +3458,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
@@ -3475,10 +3472,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
@@ -3489,10 +3486,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>6</v>
@@ -3503,13 +3500,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -3517,13 +3514,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3543,19 +3540,19 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -3565,13 +3562,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -3581,7 +3578,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -3610,22 +3607,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="12">
         <v>42527</v>
@@ -3654,7 +3651,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="12">
         <v>42540</v>
@@ -3679,7 +3676,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="12">
         <v>42554</v>
@@ -3704,7 +3701,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="12">
         <v>42568</v>
@@ -3729,7 +3726,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="12">
         <v>42582</v>
@@ -3884,22 +3881,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4175,7 +4172,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -4190,7 +4187,7 @@
         <v>300</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4204,7 +4201,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -4219,7 +4216,7 @@
         <v>300</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4233,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -4248,7 +4245,7 @@
         <v>300</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4262,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4277,7 +4274,7 @@
         <v>300</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -4288,10 +4285,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4306,7 +4303,7 @@
         <v>300</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -4317,10 +4314,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4335,29 +4332,29 @@
         <v>300</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4365,17 +4362,17 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4441,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -4456,7 +4453,7 @@
         <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4464,13 +4461,13 @@
         <v>34</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -4485,7 +4482,7 @@
         <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4499,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -4514,7 +4511,7 @@
         <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4528,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4543,7 +4540,7 @@
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -4554,10 +4551,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4572,7 +4569,7 @@
         <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -4583,10 +4580,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4601,27 +4598,27 @@
         <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -4635,17 +4632,17 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4712,7 +4709,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -4727,7 +4724,7 @@
         <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4741,7 +4738,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -4756,7 +4753,7 @@
         <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4770,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -4785,7 +4782,7 @@
         <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4799,7 +4796,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4814,21 +4811,21 @@
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4843,21 +4840,21 @@
         <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4872,27 +4869,27 @@
         <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -4906,17 +4903,17 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4930,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83123682-8ED9-433A-8356-FCAF37546C7B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4974,16 +4971,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -4998,21 +4995,21 @@
         <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -5027,21 +5024,21 @@
         <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -5056,21 +5053,21 @@
         <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -5085,21 +5082,21 @@
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -5107,22 +5104,28 @@
       <c r="F6">
         <v>120</v>
       </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>116</v>
-      </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -5130,8 +5133,14 @@
       <c r="F7">
         <v>120</v>
       </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
       <c r="I7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5143,7 +5152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC1019-8BDC-4EF6-9036-A457273E0BB7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -5164,7 +5173,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -5198,7 +5207,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5209,7 +5218,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5220,7 +5229,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5231,7 +5240,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5242,7 +5251,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5253,7 +5262,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5264,7 +5273,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5272,10 +5281,10 @@
         <v>34</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5286,7 +5295,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5297,29 +5306,29 @@
         <v>39</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5330,7 +5339,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5341,7 +5350,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5352,84 +5361,84 @@
         <v>45</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5440,7 +5449,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5460,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5462,194 +5471,194 @@
         <v>51</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
